--- a/EVALY.xlsx
+++ b/EVALY.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP WORLD\Desktop\git\evaly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP WORLD\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AAB1F82-732B-420A-B844-5F97CFCC44CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90F829B-BADA-4467-A556-B873C973D0A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5311,12 +5311,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -5328,67 +5332,38 @@
     <xf numFmtId="14" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5402,60 +5377,44 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="62" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="24" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="74" fillId="31" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="70" fillId="26" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="31" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="74" fillId="31" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5464,6 +5423,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="74" fillId="31" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5481,38 +5445,74 @@
     <xf numFmtId="0" fontId="24" fillId="33" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="31" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="74" fillId="31" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="74" fillId="31" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="24" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="70" fillId="26" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="67" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="84" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="80" fillId="34" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="76" fillId="34" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="34" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="56" fillId="34" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="78" fillId="7" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="78" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="83" fillId="34" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="7" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="56" fillId="7" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="76" fillId="34" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="77" fillId="34" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="56" fillId="7" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="78" fillId="7" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="56" fillId="7" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="80" fillId="34" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="34" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="7" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="83" fillId="34" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="78" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="86" fillId="34" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="34" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="84" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="87" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5521,6 +5521,30 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF00FF"/>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE599"/>
+          <bgColor rgb="FFFFE599"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCC4125"/>
+          <bgColor rgb="FFCC4125"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -5556,32 +5580,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCC4125"/>
-          <bgColor rgb="FFCC4125"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
           <fgColor rgb="FF93C47D"/>
           <bgColor rgb="FF93C47D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF00FF"/>
-          <bgColor rgb="FFFF00FF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -8370,10 +8370,10 @@
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="424" t="s">
+      <c r="B4" s="426" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="425"/>
+      <c r="C4" s="427"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="4"/>
@@ -8385,8 +8385,8 @@
       <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="426"/>
-      <c r="C5" s="422"/>
+      <c r="B5" s="428"/>
+      <c r="C5" s="424"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="4"/>
@@ -8398,10 +8398,10 @@
       <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="426" t="s">
+      <c r="B6" s="428" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="422"/>
+      <c r="C6" s="424"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="4"/>
@@ -8413,10 +8413,10 @@
       <c r="A7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="427">
+      <c r="B7" s="429">
         <v>45718</v>
       </c>
-      <c r="C7" s="422"/>
+      <c r="C7" s="424"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="4"/>
@@ -8428,8 +8428,8 @@
       <c r="A8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="426"/>
-      <c r="C8" s="422"/>
+      <c r="B8" s="428"/>
+      <c r="C8" s="424"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="4"/>
@@ -8471,13 +8471,13 @@
       <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A12" s="428" t="s">
+      <c r="A12" s="421" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="423" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="421" t="s">
+      <c r="C12" s="425" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="423" t="s">
@@ -8492,11 +8492,11 @@
       <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A13" s="429"/>
-      <c r="B13" s="422"/>
-      <c r="C13" s="422"/>
-      <c r="D13" s="422"/>
-      <c r="E13" s="422"/>
+      <c r="A13" s="422"/>
+      <c r="B13" s="424"/>
+      <c r="C13" s="424"/>
+      <c r="D13" s="424"/>
+      <c r="E13" s="424"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -18812,16 +18812,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="E12:E13"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
@@ -18859,10 +18859,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="29.25" customHeight="1">
-      <c r="A1" s="430" t="s">
+      <c r="A1" s="463" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="431"/>
+      <c r="B1" s="460"/>
       <c r="C1" s="32" t="s">
         <v>3</v>
       </c>
@@ -18905,10 +18905,10 @@
       <c r="AC1" s="42"/>
     </row>
     <row r="2" spans="1:29" ht="32.25" customHeight="1">
-      <c r="A2" s="430" t="s">
+      <c r="A2" s="463" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="431"/>
+      <c r="B2" s="460"/>
       <c r="C2" s="43" t="s">
         <v>36</v>
       </c>
@@ -18953,10 +18953,10 @@
       <c r="AC2" s="42"/>
     </row>
     <row r="3" spans="1:29" ht="33" customHeight="1">
-      <c r="A3" s="430" t="s">
+      <c r="A3" s="463" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="431"/>
+      <c r="B3" s="460"/>
       <c r="C3" s="43"/>
       <c r="D3" s="44" t="s">
         <v>43</v>
@@ -18999,10 +18999,10 @@
       <c r="AC3" s="42"/>
     </row>
     <row r="4" spans="1:29" ht="34.5" customHeight="1">
-      <c r="A4" s="430" t="s">
+      <c r="A4" s="463" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="431"/>
+      <c r="B4" s="460"/>
       <c r="C4" s="43"/>
       <c r="D4" s="44" t="s">
         <v>48</v>
@@ -19045,17 +19045,17 @@
       <c r="AC4" s="42"/>
     </row>
     <row r="5" spans="1:29" ht="31.5" customHeight="1">
-      <c r="A5" s="432" t="s">
+      <c r="A5" s="464" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="431"/>
-      <c r="C5" s="433" t="s">
+      <c r="B5" s="460"/>
+      <c r="C5" s="458" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="434"/>
-      <c r="E5" s="434"/>
-      <c r="F5" s="434"/>
-      <c r="G5" s="431"/>
+      <c r="D5" s="459"/>
+      <c r="E5" s="459"/>
+      <c r="F5" s="459"/>
+      <c r="G5" s="460"/>
       <c r="H5" s="36"/>
       <c r="I5" s="37"/>
       <c r="J5" s="38"/>
@@ -19267,7 +19267,7 @@
         <v>78</v>
       </c>
       <c r="C10" s="90"/>
-      <c r="D10" s="435" t="s">
+      <c r="D10" s="461" t="s">
         <v>79</v>
       </c>
       <c r="E10" s="70" t="s">
@@ -19314,7 +19314,7 @@
       </c>
       <c r="B11" s="90"/>
       <c r="C11" s="90"/>
-      <c r="D11" s="436"/>
+      <c r="D11" s="439"/>
       <c r="E11" s="70" t="s">
         <v>84</v>
       </c>
@@ -19359,7 +19359,7 @@
       </c>
       <c r="B12" s="90"/>
       <c r="C12" s="90"/>
-      <c r="D12" s="436"/>
+      <c r="D12" s="439"/>
       <c r="E12" s="96" t="s">
         <v>87</v>
       </c>
@@ -19404,7 +19404,7 @@
       </c>
       <c r="B13" s="90"/>
       <c r="C13" s="90"/>
-      <c r="D13" s="436"/>
+      <c r="D13" s="439"/>
       <c r="E13" s="96" t="s">
         <v>90</v>
       </c>
@@ -19449,7 +19449,7 @@
       </c>
       <c r="B14" s="101"/>
       <c r="C14" s="101"/>
-      <c r="D14" s="436"/>
+      <c r="D14" s="439"/>
       <c r="E14" s="96" t="s">
         <v>93</v>
       </c>
@@ -19494,7 +19494,7 @@
       </c>
       <c r="B15" s="67"/>
       <c r="C15" s="67"/>
-      <c r="D15" s="436"/>
+      <c r="D15" s="439"/>
       <c r="E15" s="97" t="s">
         <v>97</v>
       </c>
@@ -19539,7 +19539,7 @@
       </c>
       <c r="B16" s="67"/>
       <c r="C16" s="67"/>
-      <c r="D16" s="436"/>
+      <c r="D16" s="439"/>
       <c r="E16" s="70" t="s">
         <v>100</v>
       </c>
@@ -19584,7 +19584,7 @@
       </c>
       <c r="B17" s="104"/>
       <c r="C17" s="104"/>
-      <c r="D17" s="436"/>
+      <c r="D17" s="439"/>
       <c r="E17" s="70" t="s">
         <v>103</v>
       </c>
@@ -19629,7 +19629,7 @@
       </c>
       <c r="B18" s="90"/>
       <c r="C18" s="90"/>
-      <c r="D18" s="436"/>
+      <c r="D18" s="439"/>
       <c r="E18" s="70" t="s">
         <v>106</v>
       </c>
@@ -19674,7 +19674,7 @@
       </c>
       <c r="B19" s="90"/>
       <c r="C19" s="90"/>
-      <c r="D19" s="436"/>
+      <c r="D19" s="439"/>
       <c r="E19" s="97" t="s">
         <v>109</v>
       </c>
@@ -19721,7 +19721,7 @@
       </c>
       <c r="B20" s="90"/>
       <c r="C20" s="90"/>
-      <c r="D20" s="436"/>
+      <c r="D20" s="439"/>
       <c r="E20" s="70" t="s">
         <v>115</v>
       </c>
@@ -19766,7 +19766,7 @@
       </c>
       <c r="B21" s="90"/>
       <c r="C21" s="90"/>
-      <c r="D21" s="436"/>
+      <c r="D21" s="439"/>
       <c r="E21" s="97" t="s">
         <v>118</v>
       </c>
@@ -19811,7 +19811,7 @@
       </c>
       <c r="B22" s="90"/>
       <c r="C22" s="107"/>
-      <c r="D22" s="436"/>
+      <c r="D22" s="439"/>
       <c r="E22" s="97" t="s">
         <v>121</v>
       </c>
@@ -19858,7 +19858,7 @@
       </c>
       <c r="B23" s="90"/>
       <c r="C23" s="107"/>
-      <c r="D23" s="436"/>
+      <c r="D23" s="439"/>
       <c r="E23" s="97" t="s">
         <v>125</v>
       </c>
@@ -19901,7 +19901,7 @@
       </c>
       <c r="B24" s="90"/>
       <c r="C24" s="107"/>
-      <c r="D24" s="436"/>
+      <c r="D24" s="439"/>
       <c r="E24" s="97" t="s">
         <v>127</v>
       </c>
@@ -19944,7 +19944,7 @@
       </c>
       <c r="B25" s="90"/>
       <c r="C25" s="107"/>
-      <c r="D25" s="436"/>
+      <c r="D25" s="439"/>
       <c r="E25" s="97" t="s">
         <v>128</v>
       </c>
@@ -19991,7 +19991,7 @@
       </c>
       <c r="B26" s="90"/>
       <c r="C26" s="107"/>
-      <c r="D26" s="436"/>
+      <c r="D26" s="439"/>
       <c r="E26" s="97" t="s">
         <v>132</v>
       </c>
@@ -20034,7 +20034,7 @@
       </c>
       <c r="B27" s="90"/>
       <c r="C27" s="107"/>
-      <c r="D27" s="436"/>
+      <c r="D27" s="439"/>
       <c r="E27" s="97" t="s">
         <v>134</v>
       </c>
@@ -20077,7 +20077,7 @@
       </c>
       <c r="B28" s="90"/>
       <c r="C28" s="107"/>
-      <c r="D28" s="436"/>
+      <c r="D28" s="439"/>
       <c r="E28" s="97" t="s">
         <v>136</v>
       </c>
@@ -20120,7 +20120,7 @@
       </c>
       <c r="B29" s="90"/>
       <c r="C29" s="107"/>
-      <c r="D29" s="436"/>
+      <c r="D29" s="439"/>
       <c r="E29" s="97" t="s">
         <v>138</v>
       </c>
@@ -20163,7 +20163,7 @@
       </c>
       <c r="B30" s="90"/>
       <c r="C30" s="107"/>
-      <c r="D30" s="437"/>
+      <c r="D30" s="440"/>
       <c r="E30" s="97" t="s">
         <v>140</v>
       </c>
@@ -20235,7 +20235,7 @@
       </c>
       <c r="B32" s="90"/>
       <c r="C32" s="107"/>
-      <c r="D32" s="438" t="s">
+      <c r="D32" s="462" t="s">
         <v>142</v>
       </c>
       <c r="E32" s="97" t="s">
@@ -20282,7 +20282,7 @@
       </c>
       <c r="B33" s="90"/>
       <c r="C33" s="107"/>
-      <c r="D33" s="436"/>
+      <c r="D33" s="439"/>
       <c r="E33" s="97" t="s">
         <v>147</v>
       </c>
@@ -20327,7 +20327,7 @@
       </c>
       <c r="B34" s="90"/>
       <c r="C34" s="107"/>
-      <c r="D34" s="437"/>
+      <c r="D34" s="440"/>
       <c r="E34" s="97" t="s">
         <v>149</v>
       </c>
@@ -20403,7 +20403,7 @@
       </c>
       <c r="B36" s="90"/>
       <c r="C36" s="107"/>
-      <c r="D36" s="435" t="s">
+      <c r="D36" s="461" t="s">
         <v>151</v>
       </c>
       <c r="E36" s="70" t="s">
@@ -20450,7 +20450,7 @@
       </c>
       <c r="B37" s="90"/>
       <c r="C37" s="107"/>
-      <c r="D37" s="436"/>
+      <c r="D37" s="439"/>
       <c r="E37" s="70" t="s">
         <v>155</v>
       </c>
@@ -20495,7 +20495,7 @@
       </c>
       <c r="B38" s="90"/>
       <c r="C38" s="107"/>
-      <c r="D38" s="436"/>
+      <c r="D38" s="439"/>
       <c r="E38" s="122" t="s">
         <v>157</v>
       </c>
@@ -20540,7 +20540,7 @@
       </c>
       <c r="B39" s="90"/>
       <c r="C39" s="107"/>
-      <c r="D39" s="436"/>
+      <c r="D39" s="439"/>
       <c r="E39" s="122" t="s">
         <v>160</v>
       </c>
@@ -20585,7 +20585,7 @@
       </c>
       <c r="B40" s="90"/>
       <c r="C40" s="107"/>
-      <c r="D40" s="436"/>
+      <c r="D40" s="439"/>
       <c r="E40" s="122" t="s">
         <v>162</v>
       </c>
@@ -20630,7 +20630,7 @@
       </c>
       <c r="B41" s="90"/>
       <c r="C41" s="107"/>
-      <c r="D41" s="436"/>
+      <c r="D41" s="439"/>
       <c r="E41" s="122" t="s">
         <v>164</v>
       </c>
@@ -20677,7 +20677,7 @@
       </c>
       <c r="B42" s="90"/>
       <c r="C42" s="107"/>
-      <c r="D42" s="436"/>
+      <c r="D42" s="439"/>
       <c r="E42" s="122" t="s">
         <v>168</v>
       </c>
@@ -20721,7 +20721,7 @@
       </c>
       <c r="B43" s="90"/>
       <c r="C43" s="107"/>
-      <c r="D43" s="436"/>
+      <c r="D43" s="439"/>
       <c r="E43" s="122" t="s">
         <v>171</v>
       </c>
@@ -20766,7 +20766,7 @@
       </c>
       <c r="B44" s="90"/>
       <c r="C44" s="107"/>
-      <c r="D44" s="436"/>
+      <c r="D44" s="439"/>
       <c r="E44" s="122" t="s">
         <v>173</v>
       </c>
@@ -20811,7 +20811,7 @@
       </c>
       <c r="B45" s="138"/>
       <c r="C45" s="139"/>
-      <c r="D45" s="436"/>
+      <c r="D45" s="439"/>
       <c r="E45" s="122" t="s">
         <v>176</v>
       </c>
@@ -20854,7 +20854,7 @@
       </c>
       <c r="B46" s="90"/>
       <c r="C46" s="107"/>
-      <c r="D46" s="436"/>
+      <c r="D46" s="439"/>
       <c r="E46" s="122" t="s">
         <v>178</v>
       </c>
@@ -20897,7 +20897,7 @@
       </c>
       <c r="B47" s="138"/>
       <c r="C47" s="139"/>
-      <c r="D47" s="436"/>
+      <c r="D47" s="439"/>
       <c r="E47" s="141" t="s">
         <v>180</v>
       </c>
@@ -20940,7 +20940,7 @@
       </c>
       <c r="B48" s="143"/>
       <c r="C48" s="144"/>
-      <c r="D48" s="436"/>
+      <c r="D48" s="439"/>
       <c r="E48" s="141" t="s">
         <v>181</v>
       </c>
@@ -20983,7 +20983,7 @@
       </c>
       <c r="B49" s="143"/>
       <c r="C49" s="144"/>
-      <c r="D49" s="436"/>
+      <c r="D49" s="439"/>
       <c r="E49" s="108" t="s">
         <v>183</v>
       </c>
@@ -21030,7 +21030,7 @@
       </c>
       <c r="B50" s="143"/>
       <c r="C50" s="144"/>
-      <c r="D50" s="436"/>
+      <c r="D50" s="439"/>
       <c r="E50" s="141" t="s">
         <v>187</v>
       </c>
@@ -21073,7 +21073,7 @@
       </c>
       <c r="B51" s="143"/>
       <c r="C51" s="144"/>
-      <c r="D51" s="436"/>
+      <c r="D51" s="439"/>
       <c r="E51" s="141" t="s">
         <v>189</v>
       </c>
@@ -21116,7 +21116,7 @@
       </c>
       <c r="B52" s="143"/>
       <c r="C52" s="144"/>
-      <c r="D52" s="437"/>
+      <c r="D52" s="440"/>
       <c r="E52" s="141" t="s">
         <v>191</v>
       </c>
@@ -21192,7 +21192,7 @@
         <v>193</v>
       </c>
       <c r="C54" s="90"/>
-      <c r="D54" s="439" t="s">
+      <c r="D54" s="453" t="s">
         <v>194</v>
       </c>
       <c r="E54" s="141" t="s">
@@ -21237,7 +21237,7 @@
       </c>
       <c r="B55" s="101"/>
       <c r="C55" s="101"/>
-      <c r="D55" s="436"/>
+      <c r="D55" s="439"/>
       <c r="E55" s="149" t="s">
         <v>197</v>
       </c>
@@ -21280,7 +21280,7 @@
       </c>
       <c r="B56" s="67"/>
       <c r="C56" s="67"/>
-      <c r="D56" s="436"/>
+      <c r="D56" s="439"/>
       <c r="E56" s="96" t="s">
         <v>199</v>
       </c>
@@ -21327,7 +21327,7 @@
       </c>
       <c r="B57" s="104"/>
       <c r="C57" s="104"/>
-      <c r="D57" s="436"/>
+      <c r="D57" s="439"/>
       <c r="E57" s="159" t="s">
         <v>204</v>
       </c>
@@ -21370,7 +21370,7 @@
       </c>
       <c r="B58" s="90"/>
       <c r="C58" s="90"/>
-      <c r="D58" s="436"/>
+      <c r="D58" s="439"/>
       <c r="E58" s="122" t="s">
         <v>206</v>
       </c>
@@ -21413,7 +21413,7 @@
       </c>
       <c r="B59" s="90"/>
       <c r="C59" s="90"/>
-      <c r="D59" s="436"/>
+      <c r="D59" s="439"/>
       <c r="E59" s="122" t="s">
         <v>208</v>
       </c>
@@ -21456,7 +21456,7 @@
       </c>
       <c r="B60" s="90"/>
       <c r="C60" s="90"/>
-      <c r="D60" s="436"/>
+      <c r="D60" s="439"/>
       <c r="E60" s="122" t="s">
         <v>210</v>
       </c>
@@ -21503,7 +21503,7 @@
       </c>
       <c r="B61" s="90"/>
       <c r="C61" s="90"/>
-      <c r="D61" s="436"/>
+      <c r="D61" s="439"/>
       <c r="E61" s="122" t="s">
         <v>212</v>
       </c>
@@ -21546,7 +21546,7 @@
       </c>
       <c r="B62" s="90"/>
       <c r="C62" s="90"/>
-      <c r="D62" s="436"/>
+      <c r="D62" s="439"/>
       <c r="E62" s="122" t="s">
         <v>214</v>
       </c>
@@ -21593,7 +21593,7 @@
       </c>
       <c r="B63" s="90"/>
       <c r="C63" s="90"/>
-      <c r="D63" s="436"/>
+      <c r="D63" s="439"/>
       <c r="E63" s="122" t="s">
         <v>216</v>
       </c>
@@ -21636,7 +21636,7 @@
       </c>
       <c r="B64" s="90"/>
       <c r="C64" s="90"/>
-      <c r="D64" s="436"/>
+      <c r="D64" s="439"/>
       <c r="E64" s="96" t="s">
         <v>218</v>
       </c>
@@ -21683,7 +21683,7 @@
       </c>
       <c r="B65" s="90"/>
       <c r="C65" s="90"/>
-      <c r="D65" s="436"/>
+      <c r="D65" s="439"/>
       <c r="E65" s="96" t="s">
         <v>220</v>
       </c>
@@ -21761,7 +21761,7 @@
       </c>
       <c r="B67" s="90"/>
       <c r="C67" s="90"/>
-      <c r="D67" s="439" t="s">
+      <c r="D67" s="453" t="s">
         <v>222</v>
       </c>
       <c r="E67" s="176" t="s">
@@ -21806,7 +21806,7 @@
       </c>
       <c r="B68" s="90"/>
       <c r="C68" s="90"/>
-      <c r="D68" s="436"/>
+      <c r="D68" s="439"/>
       <c r="E68" s="176" t="s">
         <v>225</v>
       </c>
@@ -21849,7 +21849,7 @@
       </c>
       <c r="B69" s="138"/>
       <c r="C69" s="138"/>
-      <c r="D69" s="436"/>
+      <c r="D69" s="439"/>
       <c r="E69" s="122" t="s">
         <v>227</v>
       </c>
@@ -21894,7 +21894,7 @@
       </c>
       <c r="B70" s="90"/>
       <c r="C70" s="90"/>
-      <c r="D70" s="436"/>
+      <c r="D70" s="439"/>
       <c r="E70" s="176" t="s">
         <v>230</v>
       </c>
@@ -21937,7 +21937,7 @@
       </c>
       <c r="B71" s="90"/>
       <c r="C71" s="90"/>
-      <c r="D71" s="436"/>
+      <c r="D71" s="439"/>
       <c r="E71" s="176" t="s">
         <v>232</v>
       </c>
@@ -21984,7 +21984,7 @@
       </c>
       <c r="B72" s="90"/>
       <c r="C72" s="90"/>
-      <c r="D72" s="436"/>
+      <c r="D72" s="439"/>
       <c r="E72" s="176" t="s">
         <v>236</v>
       </c>
@@ -22027,7 +22027,7 @@
       </c>
       <c r="B73" s="90"/>
       <c r="C73" s="90"/>
-      <c r="D73" s="436"/>
+      <c r="D73" s="439"/>
       <c r="E73" s="176" t="s">
         <v>238</v>
       </c>
@@ -22070,7 +22070,7 @@
       </c>
       <c r="B74" s="90"/>
       <c r="C74" s="90"/>
-      <c r="D74" s="436"/>
+      <c r="D74" s="439"/>
       <c r="E74" s="176" t="s">
         <v>240</v>
       </c>
@@ -22115,7 +22115,7 @@
       </c>
       <c r="B75" s="90"/>
       <c r="C75" s="90"/>
-      <c r="D75" s="436"/>
+      <c r="D75" s="439"/>
       <c r="E75" s="176" t="s">
         <v>243</v>
       </c>
@@ -22160,7 +22160,7 @@
       </c>
       <c r="B76" s="138"/>
       <c r="C76" s="138"/>
-      <c r="D76" s="436"/>
+      <c r="D76" s="439"/>
       <c r="E76" s="122" t="s">
         <v>246</v>
       </c>
@@ -22203,7 +22203,7 @@
       </c>
       <c r="B77" s="90"/>
       <c r="C77" s="90"/>
-      <c r="D77" s="436"/>
+      <c r="D77" s="439"/>
       <c r="E77" s="122" t="s">
         <v>248</v>
       </c>
@@ -22246,7 +22246,7 @@
       </c>
       <c r="B78" s="90"/>
       <c r="C78" s="90"/>
-      <c r="D78" s="436"/>
+      <c r="D78" s="439"/>
       <c r="E78" s="122" t="s">
         <v>250</v>
       </c>
@@ -22289,7 +22289,7 @@
       </c>
       <c r="B79" s="90"/>
       <c r="C79" s="90"/>
-      <c r="D79" s="436"/>
+      <c r="D79" s="439"/>
       <c r="E79" s="122" t="s">
         <v>252</v>
       </c>
@@ -22336,7 +22336,7 @@
       </c>
       <c r="B80" s="90"/>
       <c r="C80" s="101"/>
-      <c r="D80" s="437"/>
+      <c r="D80" s="440"/>
       <c r="E80" s="122" t="s">
         <v>257</v>
       </c>
@@ -22443,7 +22443,7 @@
       <c r="A83" s="88"/>
       <c r="B83" s="90"/>
       <c r="C83" s="90"/>
-      <c r="D83" s="440"/>
+      <c r="D83" s="454"/>
       <c r="E83" s="176"/>
       <c r="F83" s="70"/>
       <c r="G83" s="122"/>
@@ -22474,7 +22474,7 @@
       <c r="A84" s="88"/>
       <c r="B84" s="90"/>
       <c r="C84" s="90"/>
-      <c r="D84" s="436"/>
+      <c r="D84" s="439"/>
       <c r="E84" s="176"/>
       <c r="F84" s="70"/>
       <c r="G84" s="122"/>
@@ -22505,7 +22505,7 @@
       <c r="A85" s="88"/>
       <c r="B85" s="90"/>
       <c r="C85" s="90"/>
-      <c r="D85" s="436"/>
+      <c r="D85" s="439"/>
       <c r="E85" s="176"/>
       <c r="F85" s="70"/>
       <c r="G85" s="122"/>
@@ -22536,7 +22536,7 @@
       <c r="A86" s="88"/>
       <c r="B86" s="90"/>
       <c r="C86" s="90"/>
-      <c r="D86" s="436"/>
+      <c r="D86" s="439"/>
       <c r="E86" s="176"/>
       <c r="F86" s="70"/>
       <c r="G86" s="122"/>
@@ -22567,7 +22567,7 @@
       <c r="A87" s="88"/>
       <c r="B87" s="90"/>
       <c r="C87" s="90"/>
-      <c r="D87" s="436"/>
+      <c r="D87" s="439"/>
       <c r="E87" s="176"/>
       <c r="F87" s="70"/>
       <c r="G87" s="122"/>
@@ -22598,7 +22598,7 @@
       <c r="A88" s="88"/>
       <c r="B88" s="90"/>
       <c r="C88" s="90"/>
-      <c r="D88" s="436"/>
+      <c r="D88" s="439"/>
       <c r="E88" s="176"/>
       <c r="F88" s="70"/>
       <c r="G88" s="122"/>
@@ -22629,7 +22629,7 @@
       <c r="A89" s="88"/>
       <c r="B89" s="90"/>
       <c r="C89" s="90"/>
-      <c r="D89" s="436"/>
+      <c r="D89" s="439"/>
       <c r="E89" s="176"/>
       <c r="F89" s="70"/>
       <c r="G89" s="122"/>
@@ -22660,7 +22660,7 @@
       <c r="A90" s="88"/>
       <c r="B90" s="90"/>
       <c r="C90" s="90"/>
-      <c r="D90" s="436"/>
+      <c r="D90" s="439"/>
       <c r="E90" s="176"/>
       <c r="F90" s="70"/>
       <c r="G90" s="122"/>
@@ -22691,7 +22691,7 @@
       <c r="A91" s="88"/>
       <c r="B91" s="90"/>
       <c r="C91" s="90"/>
-      <c r="D91" s="436"/>
+      <c r="D91" s="439"/>
       <c r="E91" s="176"/>
       <c r="F91" s="70"/>
       <c r="G91" s="122"/>
@@ -22722,7 +22722,7 @@
       <c r="A92" s="88"/>
       <c r="B92" s="90"/>
       <c r="C92" s="90"/>
-      <c r="D92" s="436"/>
+      <c r="D92" s="439"/>
       <c r="E92" s="176"/>
       <c r="F92" s="70"/>
       <c r="G92" s="122"/>
@@ -22753,7 +22753,7 @@
       <c r="A93" s="133"/>
       <c r="B93" s="90"/>
       <c r="C93" s="90"/>
-      <c r="D93" s="436"/>
+      <c r="D93" s="439"/>
       <c r="E93" s="176"/>
       <c r="F93" s="70"/>
       <c r="G93" s="122"/>
@@ -22784,7 +22784,7 @@
       <c r="A94" s="185"/>
       <c r="B94" s="90"/>
       <c r="C94" s="90"/>
-      <c r="D94" s="437"/>
+      <c r="D94" s="440"/>
       <c r="E94" s="70"/>
       <c r="F94" s="70"/>
       <c r="G94" s="122"/>
@@ -22846,7 +22846,7 @@
       <c r="A96" s="133"/>
       <c r="B96" s="143"/>
       <c r="C96" s="143"/>
-      <c r="D96" s="440"/>
+      <c r="D96" s="454"/>
       <c r="E96" s="122"/>
       <c r="F96" s="189"/>
       <c r="G96" s="189"/>
@@ -22877,7 +22877,7 @@
       <c r="A97" s="190"/>
       <c r="B97" s="143"/>
       <c r="C97" s="143"/>
-      <c r="D97" s="436"/>
+      <c r="D97" s="439"/>
       <c r="E97" s="122"/>
       <c r="F97" s="189"/>
       <c r="G97" s="189"/>
@@ -22908,7 +22908,7 @@
       <c r="A98" s="190"/>
       <c r="B98" s="143"/>
       <c r="C98" s="143"/>
-      <c r="D98" s="436"/>
+      <c r="D98" s="439"/>
       <c r="E98" s="122"/>
       <c r="F98" s="122"/>
       <c r="G98" s="189"/>
@@ -22939,7 +22939,7 @@
       <c r="A99" s="190"/>
       <c r="B99" s="143"/>
       <c r="C99" s="143"/>
-      <c r="D99" s="436"/>
+      <c r="D99" s="439"/>
       <c r="E99" s="122"/>
       <c r="F99" s="122"/>
       <c r="G99" s="189"/>
@@ -22970,7 +22970,7 @@
       <c r="A100" s="190"/>
       <c r="B100" s="143"/>
       <c r="C100" s="143"/>
-      <c r="D100" s="436"/>
+      <c r="D100" s="439"/>
       <c r="E100" s="122"/>
       <c r="F100" s="122"/>
       <c r="G100" s="189"/>
@@ -23001,7 +23001,7 @@
       <c r="A101" s="191"/>
       <c r="B101" s="143"/>
       <c r="C101" s="143"/>
-      <c r="D101" s="437"/>
+      <c r="D101" s="440"/>
       <c r="E101" s="122"/>
       <c r="F101" s="122"/>
       <c r="G101" s="189"/>
@@ -23063,7 +23063,7 @@
       <c r="A103" s="133"/>
       <c r="B103" s="90"/>
       <c r="C103" s="90"/>
-      <c r="D103" s="441"/>
+      <c r="D103" s="455"/>
       <c r="E103" s="96"/>
       <c r="F103" s="124"/>
       <c r="G103" s="122"/>
@@ -23311,7 +23311,7 @@
       <c r="A111" s="129"/>
       <c r="B111" s="129"/>
       <c r="C111" s="129"/>
-      <c r="D111" s="453"/>
+      <c r="D111" s="438"/>
       <c r="E111" s="128"/>
       <c r="F111" s="129"/>
       <c r="G111" s="203"/>
@@ -23342,7 +23342,7 @@
       <c r="A112" s="129"/>
       <c r="B112" s="129"/>
       <c r="C112" s="129"/>
-      <c r="D112" s="436"/>
+      <c r="D112" s="439"/>
       <c r="E112" s="128"/>
       <c r="F112" s="129"/>
       <c r="G112" s="203"/>
@@ -23373,7 +23373,7 @@
       <c r="A113" s="205"/>
       <c r="B113" s="206"/>
       <c r="C113" s="206"/>
-      <c r="D113" s="436"/>
+      <c r="D113" s="439"/>
       <c r="E113" s="128"/>
       <c r="F113" s="128"/>
       <c r="G113" s="203"/>
@@ -23404,7 +23404,7 @@
       <c r="A114" s="205"/>
       <c r="B114" s="206"/>
       <c r="C114" s="206"/>
-      <c r="D114" s="436"/>
+      <c r="D114" s="439"/>
       <c r="E114" s="128"/>
       <c r="F114" s="128"/>
       <c r="G114" s="203"/>
@@ -23435,7 +23435,7 @@
       <c r="A115" s="205"/>
       <c r="B115" s="206"/>
       <c r="C115" s="206"/>
-      <c r="D115" s="436"/>
+      <c r="D115" s="439"/>
       <c r="E115" s="128"/>
       <c r="F115" s="128"/>
       <c r="G115" s="203"/>
@@ -23466,7 +23466,7 @@
       <c r="A116" s="205"/>
       <c r="B116" s="206"/>
       <c r="C116" s="206"/>
-      <c r="D116" s="437"/>
+      <c r="D116" s="440"/>
       <c r="E116" s="128"/>
       <c r="F116" s="128"/>
       <c r="G116" s="203"/>
@@ -23528,7 +23528,7 @@
       <c r="A118" s="205"/>
       <c r="B118" s="206"/>
       <c r="C118" s="206"/>
-      <c r="D118" s="454"/>
+      <c r="D118" s="441"/>
       <c r="E118" s="128"/>
       <c r="F118" s="128"/>
       <c r="G118" s="128"/>
@@ -24210,7 +24210,7 @@
       <c r="A140" s="220"/>
       <c r="B140" s="221"/>
       <c r="C140" s="222"/>
-      <c r="D140" s="455"/>
+      <c r="D140" s="444"/>
       <c r="E140" s="226"/>
       <c r="F140" s="128"/>
       <c r="G140" s="128"/>
@@ -24303,7 +24303,7 @@
       <c r="A143" s="220"/>
       <c r="B143" s="221"/>
       <c r="C143" s="222"/>
-      <c r="D143" s="456"/>
+      <c r="D143" s="445"/>
       <c r="E143" s="226"/>
       <c r="F143" s="128"/>
       <c r="G143" s="128"/>
@@ -24675,7 +24675,7 @@
       <c r="A155" s="220"/>
       <c r="B155" s="221"/>
       <c r="C155" s="222"/>
-      <c r="D155" s="457"/>
+      <c r="D155" s="446"/>
       <c r="E155" s="226"/>
       <c r="F155" s="128"/>
       <c r="G155" s="128"/>
@@ -25016,7 +25016,7 @@
       <c r="A166" s="220"/>
       <c r="B166" s="221"/>
       <c r="C166" s="222"/>
-      <c r="D166" s="458"/>
+      <c r="D166" s="447"/>
       <c r="E166" s="252"/>
       <c r="F166" s="237"/>
       <c r="G166" s="238"/>
@@ -25047,7 +25047,7 @@
       <c r="A167" s="220"/>
       <c r="B167" s="221"/>
       <c r="C167" s="222"/>
-      <c r="D167" s="459"/>
+      <c r="D167" s="448"/>
       <c r="E167" s="243"/>
       <c r="F167" s="244"/>
       <c r="G167" s="244"/>
@@ -25109,7 +25109,7 @@
       <c r="A169" s="220"/>
       <c r="B169" s="221"/>
       <c r="C169" s="222"/>
-      <c r="D169" s="458"/>
+      <c r="D169" s="447"/>
       <c r="E169" s="243"/>
       <c r="F169" s="244"/>
       <c r="G169" s="244"/>
@@ -25140,7 +25140,7 @@
       <c r="A170" s="220"/>
       <c r="B170" s="221"/>
       <c r="C170" s="222"/>
-      <c r="D170" s="459"/>
+      <c r="D170" s="448"/>
       <c r="E170" s="252"/>
       <c r="F170" s="244"/>
       <c r="G170" s="244"/>
@@ -25171,7 +25171,7 @@
       <c r="A171" s="220"/>
       <c r="B171" s="221"/>
       <c r="C171" s="222"/>
-      <c r="D171" s="459"/>
+      <c r="D171" s="448"/>
       <c r="E171" s="243"/>
       <c r="F171" s="244"/>
       <c r="G171" s="244"/>
@@ -25202,7 +25202,7 @@
       <c r="A172" s="220"/>
       <c r="B172" s="221"/>
       <c r="C172" s="222"/>
-      <c r="D172" s="459"/>
+      <c r="D172" s="448"/>
       <c r="E172" s="252"/>
       <c r="F172" s="237"/>
       <c r="G172" s="238"/>
@@ -25233,7 +25233,7 @@
       <c r="A173" s="220"/>
       <c r="B173" s="221"/>
       <c r="C173" s="222"/>
-      <c r="D173" s="459"/>
+      <c r="D173" s="448"/>
       <c r="E173" s="250"/>
       <c r="F173" s="256"/>
       <c r="G173" s="248"/>
@@ -25264,7 +25264,7 @@
       <c r="A174" s="220"/>
       <c r="B174" s="221"/>
       <c r="C174" s="222"/>
-      <c r="D174" s="459"/>
+      <c r="D174" s="448"/>
       <c r="E174" s="252"/>
       <c r="F174" s="258"/>
       <c r="G174" s="238"/>
@@ -25295,7 +25295,7 @@
       <c r="A175" s="220"/>
       <c r="B175" s="221"/>
       <c r="C175" s="222"/>
-      <c r="D175" s="422"/>
+      <c r="D175" s="424"/>
       <c r="E175" s="250"/>
       <c r="F175" s="259"/>
       <c r="G175" s="248"/>
@@ -25357,7 +25357,7 @@
       <c r="A177" s="220"/>
       <c r="B177" s="221"/>
       <c r="C177" s="222"/>
-      <c r="D177" s="444"/>
+      <c r="D177" s="456"/>
       <c r="E177" s="261"/>
       <c r="F177" s="262"/>
       <c r="G177" s="248"/>
@@ -25605,7 +25605,7 @@
       <c r="A185" s="220"/>
       <c r="B185" s="221"/>
       <c r="C185" s="222"/>
-      <c r="D185" s="445"/>
+      <c r="D185" s="457"/>
       <c r="E185" s="263"/>
       <c r="F185" s="253"/>
       <c r="G185" s="253"/>
@@ -25729,7 +25729,7 @@
       <c r="A189" s="220"/>
       <c r="B189" s="221"/>
       <c r="C189" s="266"/>
-      <c r="D189" s="446"/>
+      <c r="D189" s="449"/>
       <c r="E189" s="268"/>
       <c r="F189" s="253"/>
       <c r="G189" s="253"/>
@@ -25760,7 +25760,7 @@
       <c r="A190" s="220"/>
       <c r="B190" s="221"/>
       <c r="C190" s="266"/>
-      <c r="D190" s="422"/>
+      <c r="D190" s="424"/>
       <c r="E190" s="268"/>
       <c r="F190" s="253"/>
       <c r="G190" s="253"/>
@@ -26752,7 +26752,7 @@
       <c r="A222" s="220"/>
       <c r="B222" s="221"/>
       <c r="C222" s="266"/>
-      <c r="D222" s="447"/>
+      <c r="D222" s="450"/>
       <c r="E222" s="263"/>
       <c r="F222" s="253"/>
       <c r="G222" s="253"/>
@@ -26761,7 +26761,7 @@
       <c r="J222" s="246"/>
       <c r="K222" s="253"/>
       <c r="L222" s="242"/>
-      <c r="M222" s="449"/>
+      <c r="M222" s="452"/>
       <c r="N222" s="53"/>
       <c r="O222" s="53"/>
       <c r="P222" s="53"/>
@@ -26783,7 +26783,7 @@
       <c r="A223" s="220"/>
       <c r="B223" s="221"/>
       <c r="C223" s="266"/>
-      <c r="D223" s="448"/>
+      <c r="D223" s="451"/>
       <c r="E223" s="263"/>
       <c r="F223" s="253"/>
       <c r="G223" s="253"/>
@@ -26792,7 +26792,7 @@
       <c r="J223" s="246"/>
       <c r="K223" s="253"/>
       <c r="L223" s="242"/>
-      <c r="M223" s="450"/>
+      <c r="M223" s="431"/>
       <c r="N223" s="53"/>
       <c r="O223" s="53"/>
       <c r="P223" s="53"/>
@@ -26814,7 +26814,7 @@
       <c r="A224" s="220"/>
       <c r="B224" s="221"/>
       <c r="C224" s="266"/>
-      <c r="D224" s="448"/>
+      <c r="D224" s="451"/>
       <c r="E224" s="263"/>
       <c r="F224" s="253"/>
       <c r="G224" s="253"/>
@@ -26823,7 +26823,7 @@
       <c r="J224" s="246"/>
       <c r="K224" s="253"/>
       <c r="L224" s="242"/>
-      <c r="M224" s="450"/>
+      <c r="M224" s="431"/>
       <c r="N224" s="53"/>
       <c r="O224" s="53"/>
       <c r="P224" s="53"/>
@@ -26845,7 +26845,7 @@
       <c r="A225" s="220"/>
       <c r="B225" s="221"/>
       <c r="C225" s="266"/>
-      <c r="D225" s="448"/>
+      <c r="D225" s="451"/>
       <c r="E225" s="282"/>
       <c r="F225" s="253"/>
       <c r="G225" s="253"/>
@@ -26854,7 +26854,7 @@
       <c r="J225" s="246"/>
       <c r="K225" s="253"/>
       <c r="L225" s="242"/>
-      <c r="M225" s="450"/>
+      <c r="M225" s="431"/>
       <c r="N225" s="53"/>
       <c r="O225" s="53"/>
       <c r="P225" s="53"/>
@@ -26876,7 +26876,7 @@
       <c r="A226" s="220"/>
       <c r="B226" s="221"/>
       <c r="C226" s="266"/>
-      <c r="D226" s="448"/>
+      <c r="D226" s="451"/>
       <c r="E226" s="282"/>
       <c r="F226" s="253"/>
       <c r="G226" s="253"/>
@@ -26885,7 +26885,7 @@
       <c r="J226" s="246"/>
       <c r="K226" s="253"/>
       <c r="L226" s="242"/>
-      <c r="M226" s="450"/>
+      <c r="M226" s="431"/>
       <c r="N226" s="53"/>
       <c r="O226" s="53"/>
       <c r="P226" s="53"/>
@@ -26907,7 +26907,7 @@
       <c r="A227" s="220"/>
       <c r="B227" s="221"/>
       <c r="C227" s="266"/>
-      <c r="D227" s="448"/>
+      <c r="D227" s="451"/>
       <c r="E227" s="282"/>
       <c r="F227" s="253"/>
       <c r="G227" s="253"/>
@@ -26916,7 +26916,7 @@
       <c r="J227" s="246"/>
       <c r="K227" s="253"/>
       <c r="L227" s="242"/>
-      <c r="M227" s="450"/>
+      <c r="M227" s="431"/>
       <c r="N227" s="53"/>
       <c r="O227" s="53"/>
       <c r="P227" s="53"/>
@@ -26938,7 +26938,7 @@
       <c r="A228" s="220"/>
       <c r="B228" s="221"/>
       <c r="C228" s="266"/>
-      <c r="D228" s="448"/>
+      <c r="D228" s="451"/>
       <c r="E228" s="282"/>
       <c r="F228" s="253"/>
       <c r="G228" s="253"/>
@@ -26947,7 +26947,7 @@
       <c r="J228" s="246"/>
       <c r="K228" s="253"/>
       <c r="L228" s="242"/>
-      <c r="M228" s="450"/>
+      <c r="M228" s="431"/>
       <c r="N228" s="53"/>
       <c r="O228" s="53"/>
       <c r="P228" s="53"/>
@@ -26969,7 +26969,7 @@
       <c r="A229" s="220"/>
       <c r="B229" s="221"/>
       <c r="C229" s="266"/>
-      <c r="D229" s="448"/>
+      <c r="D229" s="451"/>
       <c r="E229" s="263"/>
       <c r="F229" s="253"/>
       <c r="G229" s="253"/>
@@ -26978,7 +26978,7 @@
       <c r="J229" s="246"/>
       <c r="K229" s="253"/>
       <c r="L229" s="242"/>
-      <c r="M229" s="429"/>
+      <c r="M229" s="422"/>
       <c r="N229" s="53"/>
       <c r="O229" s="53"/>
       <c r="P229" s="53"/>
@@ -27000,7 +27000,7 @@
       <c r="A230" s="220"/>
       <c r="B230" s="221"/>
       <c r="C230" s="266"/>
-      <c r="D230" s="448"/>
+      <c r="D230" s="451"/>
       <c r="E230" s="263"/>
       <c r="F230" s="253"/>
       <c r="G230" s="253"/>
@@ -27031,7 +27031,7 @@
       <c r="A231" s="220"/>
       <c r="B231" s="221"/>
       <c r="C231" s="266"/>
-      <c r="D231" s="448"/>
+      <c r="D231" s="451"/>
       <c r="E231" s="263"/>
       <c r="F231" s="253"/>
       <c r="G231" s="253"/>
@@ -27062,7 +27062,7 @@
       <c r="A232" s="220"/>
       <c r="B232" s="221"/>
       <c r="C232" s="266"/>
-      <c r="D232" s="448"/>
+      <c r="D232" s="451"/>
       <c r="E232" s="263"/>
       <c r="F232" s="253"/>
       <c r="G232" s="253"/>
@@ -27126,7 +27126,7 @@
       <c r="C234" s="292" t="s">
         <v>261</v>
       </c>
-      <c r="D234" s="463"/>
+      <c r="D234" s="432"/>
       <c r="E234" s="263"/>
       <c r="F234" s="253"/>
       <c r="G234" s="276"/>
@@ -27157,7 +27157,7 @@
       <c r="A235" s="290"/>
       <c r="B235" s="242"/>
       <c r="C235" s="294"/>
-      <c r="D235" s="450"/>
+      <c r="D235" s="431"/>
       <c r="E235" s="263"/>
       <c r="F235" s="253"/>
       <c r="G235" s="276"/>
@@ -27188,7 +27188,7 @@
       <c r="A236" s="290"/>
       <c r="B236" s="242"/>
       <c r="C236" s="294"/>
-      <c r="D236" s="450"/>
+      <c r="D236" s="431"/>
       <c r="E236" s="263"/>
       <c r="F236" s="253"/>
       <c r="G236" s="276"/>
@@ -27219,7 +27219,7 @@
       <c r="A237" s="290"/>
       <c r="B237" s="242"/>
       <c r="C237" s="292"/>
-      <c r="D237" s="450"/>
+      <c r="D237" s="431"/>
       <c r="E237" s="263"/>
       <c r="F237" s="253"/>
       <c r="G237" s="276"/>
@@ -27250,7 +27250,7 @@
       <c r="A238" s="290"/>
       <c r="B238" s="291"/>
       <c r="C238" s="292"/>
-      <c r="D238" s="450"/>
+      <c r="D238" s="431"/>
       <c r="E238" s="263"/>
       <c r="F238" s="253"/>
       <c r="G238" s="276"/>
@@ -27281,7 +27281,7 @@
       <c r="A239" s="290"/>
       <c r="B239" s="291"/>
       <c r="C239" s="292"/>
-      <c r="D239" s="450"/>
+      <c r="D239" s="431"/>
       <c r="E239" s="263"/>
       <c r="F239" s="253"/>
       <c r="G239" s="276"/>
@@ -27312,7 +27312,7 @@
       <c r="A240" s="290"/>
       <c r="B240" s="291"/>
       <c r="C240" s="292"/>
-      <c r="D240" s="450"/>
+      <c r="D240" s="431"/>
       <c r="E240" s="263"/>
       <c r="F240" s="253"/>
       <c r="G240" s="276"/>
@@ -27343,7 +27343,7 @@
       <c r="A241" s="290"/>
       <c r="B241" s="291"/>
       <c r="C241" s="292"/>
-      <c r="D241" s="450"/>
+      <c r="D241" s="431"/>
       <c r="E241" s="263"/>
       <c r="F241" s="253"/>
       <c r="G241" s="276"/>
@@ -27374,7 +27374,7 @@
       <c r="A242" s="290"/>
       <c r="B242" s="291"/>
       <c r="C242" s="292"/>
-      <c r="D242" s="429"/>
+      <c r="D242" s="422"/>
       <c r="E242" s="263"/>
       <c r="F242" s="253"/>
       <c r="G242" s="276"/>
@@ -28716,8 +28716,8 @@
       <c r="H285" s="313"/>
       <c r="I285" s="312"/>
       <c r="J285" s="314"/>
-      <c r="K285" s="451"/>
-      <c r="L285" s="449"/>
+      <c r="K285" s="437"/>
+      <c r="L285" s="452"/>
       <c r="M285" s="303"/>
       <c r="N285" s="53"/>
       <c r="O285" s="53"/>
@@ -28747,8 +28747,8 @@
       <c r="H286" s="317"/>
       <c r="I286" s="316"/>
       <c r="J286" s="318"/>
-      <c r="K286" s="450"/>
-      <c r="L286" s="450"/>
+      <c r="K286" s="431"/>
+      <c r="L286" s="431"/>
       <c r="M286" s="303"/>
       <c r="N286" s="53"/>
       <c r="O286" s="53"/>
@@ -28778,8 +28778,8 @@
       <c r="H287" s="234"/>
       <c r="I287" s="233"/>
       <c r="J287" s="235"/>
-      <c r="K287" s="429"/>
-      <c r="L287" s="429"/>
+      <c r="K287" s="422"/>
+      <c r="L287" s="422"/>
       <c r="M287" s="303"/>
       <c r="N287" s="53"/>
       <c r="O287" s="53"/>
@@ -28987,9 +28987,9 @@
     <row r="294" spans="1:29" ht="15.75" customHeight="1">
       <c r="A294" s="290"/>
       <c r="B294" s="311"/>
-      <c r="C294" s="460"/>
+      <c r="C294" s="433"/>
       <c r="D294" s="295"/>
-      <c r="E294" s="464"/>
+      <c r="E294" s="434"/>
       <c r="F294" s="244"/>
       <c r="G294" s="244"/>
       <c r="H294" s="245"/>
@@ -29018,9 +29018,9 @@
     <row r="295" spans="1:29" ht="15.75" customHeight="1">
       <c r="A295" s="290"/>
       <c r="B295" s="311"/>
-      <c r="C295" s="450"/>
+      <c r="C295" s="431"/>
       <c r="D295" s="295"/>
-      <c r="E295" s="450"/>
+      <c r="E295" s="431"/>
       <c r="F295" s="244"/>
       <c r="G295" s="244"/>
       <c r="H295" s="245"/>
@@ -29049,9 +29049,9 @@
     <row r="296" spans="1:29" ht="15.75" customHeight="1">
       <c r="A296" s="290"/>
       <c r="B296" s="311"/>
-      <c r="C296" s="450"/>
+      <c r="C296" s="431"/>
       <c r="D296" s="295"/>
-      <c r="E296" s="429"/>
+      <c r="E296" s="422"/>
       <c r="F296" s="244"/>
       <c r="G296" s="244"/>
       <c r="H296" s="245"/>
@@ -29080,7 +29080,7 @@
     <row r="297" spans="1:29" ht="15.75" customHeight="1">
       <c r="A297" s="290"/>
       <c r="B297" s="311"/>
-      <c r="C297" s="450"/>
+      <c r="C297" s="431"/>
       <c r="D297" s="295"/>
       <c r="E297" s="243"/>
       <c r="F297" s="244"/>
@@ -29111,7 +29111,7 @@
     <row r="298" spans="1:29" ht="15.75" customHeight="1">
       <c r="A298" s="290"/>
       <c r="B298" s="311"/>
-      <c r="C298" s="450"/>
+      <c r="C298" s="431"/>
       <c r="D298" s="295"/>
       <c r="E298" s="243"/>
       <c r="F298" s="244"/>
@@ -29142,7 +29142,7 @@
     <row r="299" spans="1:29" ht="15.75" customHeight="1">
       <c r="A299" s="290"/>
       <c r="B299" s="311"/>
-      <c r="C299" s="450"/>
+      <c r="C299" s="431"/>
       <c r="D299" s="295"/>
       <c r="E299" s="243"/>
       <c r="F299" s="308"/>
@@ -29173,7 +29173,7 @@
     <row r="300" spans="1:29" ht="15.75" customHeight="1">
       <c r="A300" s="290"/>
       <c r="B300" s="311"/>
-      <c r="C300" s="429"/>
+      <c r="C300" s="422"/>
       <c r="D300" s="295"/>
       <c r="E300" s="243"/>
       <c r="F300" s="244"/>
@@ -29204,7 +29204,7 @@
     <row r="301" spans="1:29" ht="15.75" customHeight="1">
       <c r="A301" s="290"/>
       <c r="B301" s="311"/>
-      <c r="C301" s="460"/>
+      <c r="C301" s="433"/>
       <c r="D301" s="297"/>
       <c r="E301" s="243"/>
       <c r="F301" s="308"/>
@@ -29235,7 +29235,7 @@
     <row r="302" spans="1:29" ht="15.75" customHeight="1">
       <c r="A302" s="290"/>
       <c r="B302" s="311"/>
-      <c r="C302" s="429"/>
+      <c r="C302" s="422"/>
       <c r="D302" s="288"/>
       <c r="E302" s="243"/>
       <c r="F302" s="308"/>
@@ -29297,7 +29297,7 @@
     <row r="304" spans="1:29" ht="30" customHeight="1">
       <c r="A304" s="290"/>
       <c r="B304" s="311"/>
-      <c r="C304" s="460"/>
+      <c r="C304" s="433"/>
       <c r="D304" s="297"/>
       <c r="E304" s="243"/>
       <c r="F304" s="244"/>
@@ -29328,7 +29328,7 @@
     <row r="305" spans="1:29" ht="15.75" customHeight="1">
       <c r="A305" s="290"/>
       <c r="B305" s="311"/>
-      <c r="C305" s="450"/>
+      <c r="C305" s="431"/>
       <c r="D305" s="298"/>
       <c r="E305" s="243"/>
       <c r="F305" s="244"/>
@@ -29359,7 +29359,7 @@
     <row r="306" spans="1:29" ht="15.75" customHeight="1">
       <c r="A306" s="290"/>
       <c r="B306" s="311"/>
-      <c r="C306" s="450"/>
+      <c r="C306" s="431"/>
       <c r="D306" s="298"/>
       <c r="E306" s="243"/>
       <c r="F306" s="244"/>
@@ -29390,7 +29390,7 @@
     <row r="307" spans="1:29" ht="15.75" customHeight="1">
       <c r="A307" s="290"/>
       <c r="B307" s="311"/>
-      <c r="C307" s="450"/>
+      <c r="C307" s="431"/>
       <c r="D307" s="298"/>
       <c r="E307" s="243"/>
       <c r="F307" s="308"/>
@@ -29421,7 +29421,7 @@
     <row r="308" spans="1:29" ht="15.75" customHeight="1">
       <c r="A308" s="290"/>
       <c r="B308" s="311"/>
-      <c r="C308" s="429"/>
+      <c r="C308" s="422"/>
       <c r="D308" s="298"/>
       <c r="E308" s="249"/>
       <c r="F308" s="244"/>
@@ -29801,7 +29801,7 @@
       <c r="H320" s="309"/>
       <c r="I320" s="308"/>
       <c r="J320" s="246"/>
-      <c r="K320" s="452"/>
+      <c r="K320" s="436"/>
       <c r="L320" s="242"/>
       <c r="M320" s="272"/>
       <c r="N320" s="53"/>
@@ -29832,7 +29832,7 @@
       <c r="H321" s="309"/>
       <c r="I321" s="308"/>
       <c r="J321" s="246"/>
-      <c r="K321" s="429"/>
+      <c r="K321" s="422"/>
       <c r="L321" s="242"/>
       <c r="M321" s="272"/>
       <c r="N321" s="53"/>
@@ -29917,7 +29917,7 @@
     <row r="324" spans="1:29" ht="15.75" customHeight="1">
       <c r="A324" s="290"/>
       <c r="B324" s="311"/>
-      <c r="C324" s="460"/>
+      <c r="C324" s="433"/>
       <c r="D324" s="297"/>
       <c r="E324" s="243"/>
       <c r="F324" s="308"/>
@@ -29925,7 +29925,7 @@
       <c r="H324" s="309"/>
       <c r="I324" s="308"/>
       <c r="J324" s="246"/>
-      <c r="K324" s="451"/>
+      <c r="K324" s="437"/>
       <c r="L324" s="242"/>
       <c r="M324" s="272"/>
       <c r="N324" s="53"/>
@@ -29948,7 +29948,7 @@
     <row r="325" spans="1:29" ht="15.75" customHeight="1">
       <c r="A325" s="290"/>
       <c r="B325" s="311"/>
-      <c r="C325" s="429"/>
+      <c r="C325" s="422"/>
       <c r="D325" s="288"/>
       <c r="E325" s="243"/>
       <c r="F325" s="308"/>
@@ -29956,7 +29956,7 @@
       <c r="H325" s="309"/>
       <c r="I325" s="308"/>
       <c r="J325" s="246"/>
-      <c r="K325" s="429"/>
+      <c r="K325" s="422"/>
       <c r="L325" s="242"/>
       <c r="M325" s="272"/>
       <c r="N325" s="53"/>
@@ -29979,7 +29979,7 @@
     <row r="326" spans="1:29" ht="15.75" customHeight="1">
       <c r="A326" s="290"/>
       <c r="B326" s="311"/>
-      <c r="C326" s="460"/>
+      <c r="C326" s="433"/>
       <c r="D326" s="310"/>
       <c r="E326" s="263"/>
       <c r="F326" s="253"/>
@@ -30010,7 +30010,7 @@
     <row r="327" spans="1:29" ht="15.75" customHeight="1">
       <c r="A327" s="290"/>
       <c r="B327" s="311"/>
-      <c r="C327" s="429"/>
+      <c r="C327" s="422"/>
       <c r="D327" s="326"/>
       <c r="E327" s="263"/>
       <c r="F327" s="253"/>
@@ -30072,7 +30072,7 @@
     <row r="329" spans="1:29" ht="15.75" customHeight="1">
       <c r="A329" s="290"/>
       <c r="B329" s="311"/>
-      <c r="C329" s="460"/>
+      <c r="C329" s="433"/>
       <c r="D329" s="297"/>
       <c r="E329" s="263"/>
       <c r="F329" s="253"/>
@@ -30103,7 +30103,7 @@
     <row r="330" spans="1:29" ht="15.75" customHeight="1">
       <c r="A330" s="290"/>
       <c r="B330" s="311"/>
-      <c r="C330" s="450"/>
+      <c r="C330" s="431"/>
       <c r="D330" s="298"/>
       <c r="E330" s="263"/>
       <c r="F330" s="253"/>
@@ -30134,7 +30134,7 @@
     <row r="331" spans="1:29" ht="15.75" customHeight="1">
       <c r="A331" s="290"/>
       <c r="B331" s="311"/>
-      <c r="C331" s="429"/>
+      <c r="C331" s="422"/>
       <c r="D331" s="288"/>
       <c r="E331" s="263"/>
       <c r="F331" s="253"/>
@@ -30319,10 +30319,10 @@
     </row>
     <row r="337" spans="1:29" ht="15.75" customHeight="1">
       <c r="A337" s="337"/>
-      <c r="B337" s="461"/>
-      <c r="C337" s="460"/>
+      <c r="B337" s="435"/>
+      <c r="C337" s="433"/>
       <c r="D337" s="295"/>
-      <c r="E337" s="462"/>
+      <c r="E337" s="430"/>
       <c r="F337" s="244"/>
       <c r="G337" s="244"/>
       <c r="H337" s="245"/>
@@ -30350,10 +30350,10 @@
     </row>
     <row r="338" spans="1:29" ht="15.75" customHeight="1">
       <c r="A338" s="337"/>
-      <c r="B338" s="450"/>
-      <c r="C338" s="450"/>
+      <c r="B338" s="431"/>
+      <c r="C338" s="431"/>
       <c r="D338" s="295"/>
-      <c r="E338" s="450"/>
+      <c r="E338" s="431"/>
       <c r="F338" s="244"/>
       <c r="G338" s="244"/>
       <c r="H338" s="245"/>
@@ -30381,10 +30381,10 @@
     </row>
     <row r="339" spans="1:29" ht="15.75" customHeight="1">
       <c r="A339" s="337"/>
-      <c r="B339" s="450"/>
-      <c r="C339" s="450"/>
+      <c r="B339" s="431"/>
+      <c r="C339" s="431"/>
       <c r="D339" s="295"/>
-      <c r="E339" s="450"/>
+      <c r="E339" s="431"/>
       <c r="F339" s="244"/>
       <c r="G339" s="244"/>
       <c r="H339" s="245"/>
@@ -30412,10 +30412,10 @@
     </row>
     <row r="340" spans="1:29" ht="15.75" customHeight="1">
       <c r="A340" s="337"/>
-      <c r="B340" s="450"/>
-      <c r="C340" s="450"/>
+      <c r="B340" s="431"/>
+      <c r="C340" s="431"/>
       <c r="D340" s="295"/>
-      <c r="E340" s="450"/>
+      <c r="E340" s="431"/>
       <c r="F340" s="244"/>
       <c r="G340" s="244"/>
       <c r="H340" s="245"/>
@@ -30443,10 +30443,10 @@
     </row>
     <row r="341" spans="1:29" ht="15.75" customHeight="1">
       <c r="A341" s="337"/>
-      <c r="B341" s="450"/>
-      <c r="C341" s="450"/>
+      <c r="B341" s="431"/>
+      <c r="C341" s="431"/>
       <c r="D341" s="295"/>
-      <c r="E341" s="450"/>
+      <c r="E341" s="431"/>
       <c r="F341" s="244"/>
       <c r="G341" s="244"/>
       <c r="H341" s="245"/>
@@ -30474,10 +30474,10 @@
     </row>
     <row r="342" spans="1:29" ht="15.75" customHeight="1">
       <c r="A342" s="337"/>
-      <c r="B342" s="450"/>
-      <c r="C342" s="450"/>
+      <c r="B342" s="431"/>
+      <c r="C342" s="431"/>
       <c r="D342" s="295"/>
-      <c r="E342" s="450"/>
+      <c r="E342" s="431"/>
       <c r="F342" s="308"/>
       <c r="G342" s="308"/>
       <c r="H342" s="309"/>
@@ -30505,10 +30505,10 @@
     </row>
     <row r="343" spans="1:29" ht="15.75" customHeight="1">
       <c r="A343" s="337"/>
-      <c r="B343" s="450"/>
-      <c r="C343" s="450"/>
+      <c r="B343" s="431"/>
+      <c r="C343" s="431"/>
       <c r="D343" s="295"/>
-      <c r="E343" s="450"/>
+      <c r="E343" s="431"/>
       <c r="F343" s="244"/>
       <c r="G343" s="244"/>
       <c r="H343" s="245"/>
@@ -30536,10 +30536,10 @@
     </row>
     <row r="344" spans="1:29" ht="15.75" customHeight="1">
       <c r="A344" s="337"/>
-      <c r="B344" s="450"/>
-      <c r="C344" s="450"/>
+      <c r="B344" s="431"/>
+      <c r="C344" s="431"/>
       <c r="D344" s="295"/>
-      <c r="E344" s="429"/>
+      <c r="E344" s="422"/>
       <c r="F344" s="244"/>
       <c r="G344" s="244"/>
       <c r="H344" s="245"/>
@@ -30567,8 +30567,8 @@
     </row>
     <row r="345" spans="1:29" ht="15.75" customHeight="1">
       <c r="A345" s="337"/>
-      <c r="B345" s="450"/>
-      <c r="C345" s="450"/>
+      <c r="B345" s="431"/>
+      <c r="C345" s="431"/>
       <c r="D345" s="295"/>
       <c r="E345" s="263"/>
       <c r="F345" s="241"/>
@@ -30598,8 +30598,8 @@
     </row>
     <row r="346" spans="1:29" ht="15.75" customHeight="1">
       <c r="A346" s="337"/>
-      <c r="B346" s="450"/>
-      <c r="C346" s="450"/>
+      <c r="B346" s="431"/>
+      <c r="C346" s="431"/>
       <c r="D346" s="295"/>
       <c r="E346" s="263"/>
       <c r="F346" s="242"/>
@@ -30629,10 +30629,10 @@
     </row>
     <row r="347" spans="1:29" ht="15.75" customHeight="1">
       <c r="A347" s="337"/>
-      <c r="B347" s="450"/>
-      <c r="C347" s="450"/>
+      <c r="B347" s="431"/>
+      <c r="C347" s="431"/>
       <c r="D347" s="310"/>
-      <c r="E347" s="462"/>
+      <c r="E347" s="430"/>
       <c r="F347" s="253"/>
       <c r="G347" s="253"/>
       <c r="H347" s="264"/>
@@ -30660,10 +30660,10 @@
     </row>
     <row r="348" spans="1:29" ht="15.75" customHeight="1">
       <c r="A348" s="337"/>
-      <c r="B348" s="450"/>
-      <c r="C348" s="450"/>
+      <c r="B348" s="431"/>
+      <c r="C348" s="431"/>
       <c r="D348" s="293"/>
-      <c r="E348" s="450"/>
+      <c r="E348" s="431"/>
       <c r="F348" s="242"/>
       <c r="G348" s="242"/>
       <c r="H348" s="342"/>
@@ -30691,10 +30691,10 @@
     </row>
     <row r="349" spans="1:29" ht="15.75" customHeight="1">
       <c r="A349" s="337"/>
-      <c r="B349" s="450"/>
-      <c r="C349" s="450"/>
+      <c r="B349" s="431"/>
+      <c r="C349" s="431"/>
       <c r="D349" s="293"/>
-      <c r="E349" s="450"/>
+      <c r="E349" s="431"/>
       <c r="F349" s="242"/>
       <c r="G349" s="242"/>
       <c r="H349" s="342"/>
@@ -30722,10 +30722,10 @@
     </row>
     <row r="350" spans="1:29" ht="15.75" customHeight="1">
       <c r="A350" s="337"/>
-      <c r="B350" s="450"/>
-      <c r="C350" s="429"/>
+      <c r="B350" s="431"/>
+      <c r="C350" s="422"/>
       <c r="D350" s="326"/>
-      <c r="E350" s="429"/>
+      <c r="E350" s="422"/>
       <c r="F350" s="242"/>
       <c r="G350" s="242"/>
       <c r="H350" s="342"/>
@@ -30753,7 +30753,7 @@
     </row>
     <row r="351" spans="1:29" ht="15.75" customHeight="1">
       <c r="A351" s="337"/>
-      <c r="B351" s="450"/>
+      <c r="B351" s="431"/>
       <c r="C351" s="292"/>
       <c r="D351" s="293"/>
       <c r="E351" s="343"/>
@@ -30784,10 +30784,10 @@
     </row>
     <row r="352" spans="1:29" ht="15.75" customHeight="1">
       <c r="A352" s="337"/>
-      <c r="B352" s="450"/>
-      <c r="C352" s="460"/>
+      <c r="B352" s="431"/>
+      <c r="C352" s="433"/>
       <c r="D352" s="310"/>
-      <c r="E352" s="462"/>
+      <c r="E352" s="430"/>
       <c r="F352" s="253"/>
       <c r="G352" s="253"/>
       <c r="H352" s="264"/>
@@ -30815,10 +30815,10 @@
     </row>
     <row r="353" spans="1:29" ht="15.75" customHeight="1">
       <c r="A353" s="337"/>
-      <c r="B353" s="450"/>
-      <c r="C353" s="450"/>
+      <c r="B353" s="431"/>
+      <c r="C353" s="431"/>
       <c r="D353" s="326"/>
-      <c r="E353" s="429"/>
+      <c r="E353" s="422"/>
       <c r="F353" s="253"/>
       <c r="G353" s="253"/>
       <c r="H353" s="264"/>
@@ -30846,10 +30846,10 @@
     </row>
     <row r="354" spans="1:29" ht="15.75" customHeight="1">
       <c r="A354" s="337"/>
-      <c r="B354" s="450"/>
-      <c r="C354" s="450"/>
+      <c r="B354" s="431"/>
+      <c r="C354" s="431"/>
       <c r="D354" s="295"/>
-      <c r="E354" s="462"/>
+      <c r="E354" s="430"/>
       <c r="F354" s="253"/>
       <c r="G354" s="253"/>
       <c r="H354" s="264"/>
@@ -30877,10 +30877,10 @@
     </row>
     <row r="355" spans="1:29" ht="15.75" customHeight="1">
       <c r="A355" s="337"/>
-      <c r="B355" s="450"/>
-      <c r="C355" s="429"/>
+      <c r="B355" s="431"/>
+      <c r="C355" s="422"/>
       <c r="D355" s="295"/>
-      <c r="E355" s="429"/>
+      <c r="E355" s="422"/>
       <c r="F355" s="253"/>
       <c r="G355" s="253"/>
       <c r="H355" s="264"/>
@@ -30908,7 +30908,7 @@
     </row>
     <row r="356" spans="1:29" ht="15.75" customHeight="1">
       <c r="A356" s="337"/>
-      <c r="B356" s="450"/>
+      <c r="B356" s="431"/>
       <c r="C356" s="292"/>
       <c r="D356" s="295"/>
       <c r="E356" s="263"/>
@@ -30939,10 +30939,10 @@
     </row>
     <row r="357" spans="1:29" ht="15.75" customHeight="1">
       <c r="A357" s="337"/>
-      <c r="B357" s="450"/>
-      <c r="C357" s="460"/>
+      <c r="B357" s="431"/>
+      <c r="C357" s="433"/>
       <c r="D357" s="310"/>
-      <c r="E357" s="462"/>
+      <c r="E357" s="430"/>
       <c r="F357" s="253"/>
       <c r="G357" s="253"/>
       <c r="H357" s="264"/>
@@ -30970,10 +30970,10 @@
     </row>
     <row r="358" spans="1:29" ht="15.75" customHeight="1">
       <c r="A358" s="337"/>
-      <c r="B358" s="450"/>
-      <c r="C358" s="450"/>
+      <c r="B358" s="431"/>
+      <c r="C358" s="431"/>
       <c r="D358" s="293"/>
-      <c r="E358" s="450"/>
+      <c r="E358" s="431"/>
       <c r="F358" s="253"/>
       <c r="G358" s="253"/>
       <c r="H358" s="264"/>
@@ -31001,10 +31001,10 @@
     </row>
     <row r="359" spans="1:29" ht="15.75" customHeight="1">
       <c r="A359" s="337"/>
-      <c r="B359" s="450"/>
-      <c r="C359" s="450"/>
+      <c r="B359" s="431"/>
+      <c r="C359" s="431"/>
       <c r="D359" s="293"/>
-      <c r="E359" s="450"/>
+      <c r="E359" s="431"/>
       <c r="F359" s="253"/>
       <c r="G359" s="253"/>
       <c r="H359" s="264"/>
@@ -31032,10 +31032,10 @@
     </row>
     <row r="360" spans="1:29" ht="15.75" customHeight="1">
       <c r="A360" s="337"/>
-      <c r="B360" s="450"/>
-      <c r="C360" s="450"/>
+      <c r="B360" s="431"/>
+      <c r="C360" s="431"/>
       <c r="D360" s="293"/>
-      <c r="E360" s="450"/>
+      <c r="E360" s="431"/>
       <c r="F360" s="253"/>
       <c r="G360" s="253"/>
       <c r="H360" s="264"/>
@@ -31063,10 +31063,10 @@
     </row>
     <row r="361" spans="1:29" ht="15.75" customHeight="1">
       <c r="A361" s="337"/>
-      <c r="B361" s="450"/>
-      <c r="C361" s="450"/>
+      <c r="B361" s="431"/>
+      <c r="C361" s="431"/>
       <c r="D361" s="293"/>
-      <c r="E361" s="450"/>
+      <c r="E361" s="431"/>
       <c r="F361" s="244"/>
       <c r="G361" s="244"/>
       <c r="H361" s="245"/>
@@ -31094,10 +31094,10 @@
     </row>
     <row r="362" spans="1:29" ht="15.75" customHeight="1">
       <c r="A362" s="337"/>
-      <c r="B362" s="450"/>
-      <c r="C362" s="450"/>
+      <c r="B362" s="431"/>
+      <c r="C362" s="431"/>
       <c r="D362" s="326"/>
-      <c r="E362" s="429"/>
+      <c r="E362" s="422"/>
       <c r="F362" s="244"/>
       <c r="G362" s="244"/>
       <c r="H362" s="245"/>
@@ -31125,10 +31125,10 @@
     </row>
     <row r="363" spans="1:29" ht="15.75" customHeight="1">
       <c r="A363" s="337"/>
-      <c r="B363" s="450"/>
-      <c r="C363" s="450"/>
+      <c r="B363" s="431"/>
+      <c r="C363" s="431"/>
       <c r="D363" s="310"/>
-      <c r="E363" s="462"/>
+      <c r="E363" s="430"/>
       <c r="F363" s="253"/>
       <c r="G363" s="253"/>
       <c r="H363" s="264"/>
@@ -31156,10 +31156,10 @@
     </row>
     <row r="364" spans="1:29" ht="15.75" customHeight="1">
       <c r="A364" s="337"/>
-      <c r="B364" s="450"/>
-      <c r="C364" s="450"/>
+      <c r="B364" s="431"/>
+      <c r="C364" s="431"/>
       <c r="D364" s="293"/>
-      <c r="E364" s="450"/>
+      <c r="E364" s="431"/>
       <c r="F364" s="242"/>
       <c r="G364" s="242"/>
       <c r="H364" s="342"/>
@@ -31187,10 +31187,10 @@
     </row>
     <row r="365" spans="1:29" ht="15.75" customHeight="1">
       <c r="A365" s="337"/>
-      <c r="B365" s="450"/>
-      <c r="C365" s="450"/>
+      <c r="B365" s="431"/>
+      <c r="C365" s="431"/>
       <c r="D365" s="293"/>
-      <c r="E365" s="450"/>
+      <c r="E365" s="431"/>
       <c r="F365" s="242"/>
       <c r="G365" s="242"/>
       <c r="H365" s="342"/>
@@ -31218,10 +31218,10 @@
     </row>
     <row r="366" spans="1:29" ht="15.75" customHeight="1">
       <c r="A366" s="337"/>
-      <c r="B366" s="429"/>
-      <c r="C366" s="429"/>
+      <c r="B366" s="422"/>
+      <c r="C366" s="422"/>
       <c r="D366" s="326"/>
-      <c r="E366" s="429"/>
+      <c r="E366" s="422"/>
       <c r="F366" s="242"/>
       <c r="G366" s="242"/>
       <c r="H366" s="342"/>
@@ -40737,6 +40737,39 @@
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="D10:D30"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="D36:D52"/>
+    <mergeCell ref="D54:D65"/>
+    <mergeCell ref="K285:K287"/>
+    <mergeCell ref="L285:L287"/>
+    <mergeCell ref="D67:D80"/>
+    <mergeCell ref="D83:D94"/>
+    <mergeCell ref="D96:D101"/>
+    <mergeCell ref="D103:D109"/>
+    <mergeCell ref="D177:D185"/>
+    <mergeCell ref="D166:D167"/>
+    <mergeCell ref="D169:D175"/>
+    <mergeCell ref="D189:D190"/>
+    <mergeCell ref="D222:D232"/>
+    <mergeCell ref="M222:M229"/>
+    <mergeCell ref="D111:D116"/>
+    <mergeCell ref="D118:D122"/>
+    <mergeCell ref="D140:D141"/>
+    <mergeCell ref="D143:D153"/>
+    <mergeCell ref="D155:D164"/>
+    <mergeCell ref="B337:B366"/>
+    <mergeCell ref="C337:C350"/>
+    <mergeCell ref="C352:C355"/>
+    <mergeCell ref="C357:C366"/>
+    <mergeCell ref="K320:K321"/>
+    <mergeCell ref="K324:K325"/>
     <mergeCell ref="E363:E366"/>
     <mergeCell ref="D234:D242"/>
     <mergeCell ref="C294:C300"/>
@@ -40751,66 +40784,33 @@
     <mergeCell ref="E354:E355"/>
     <mergeCell ref="E357:E362"/>
     <mergeCell ref="C329:C331"/>
-    <mergeCell ref="B337:B366"/>
-    <mergeCell ref="C337:C350"/>
-    <mergeCell ref="C352:C355"/>
-    <mergeCell ref="C357:C366"/>
-    <mergeCell ref="K320:K321"/>
-    <mergeCell ref="K324:K325"/>
-    <mergeCell ref="D111:D116"/>
-    <mergeCell ref="D118:D122"/>
-    <mergeCell ref="D140:D141"/>
-    <mergeCell ref="D143:D153"/>
-    <mergeCell ref="D155:D164"/>
-    <mergeCell ref="D166:D167"/>
-    <mergeCell ref="D169:D175"/>
-    <mergeCell ref="D189:D190"/>
-    <mergeCell ref="D222:D232"/>
-    <mergeCell ref="M222:M229"/>
-    <mergeCell ref="K285:K287"/>
-    <mergeCell ref="L285:L287"/>
-    <mergeCell ref="D67:D80"/>
-    <mergeCell ref="D83:D94"/>
-    <mergeCell ref="D96:D101"/>
-    <mergeCell ref="D103:D109"/>
-    <mergeCell ref="D177:D185"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="D10:D30"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="D36:D52"/>
-    <mergeCell ref="D54:D65"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <conditionalFormatting sqref="L8">
-    <cfRule type="cellIs" dxfId="7" priority="12" operator="equal">
-      <formula>"Out of Scope"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="11" operator="equal">
       <formula>"Not Executed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="12" operator="equal">
+      <formula>"Out of Scope"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10:L141 L143:L153 L155:L158 L160:L164 L166:L167 L169:L175 L177:L434 K268:K273 K275:K276 K313 K327:K336">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"Not Executed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"Out of Scope"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -40865,15 +40865,15 @@
     <row r="2" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="3" spans="1:26" ht="8.25" customHeight="1"/>
     <row r="4" spans="1:26" ht="25.5" customHeight="1">
-      <c r="B4" s="468" t="s">
+      <c r="B4" s="491" t="s">
         <v>264</v>
       </c>
-      <c r="C4" s="434"/>
-      <c r="D4" s="434"/>
-      <c r="E4" s="434"/>
-      <c r="F4" s="434"/>
-      <c r="G4" s="431"/>
-      <c r="I4" s="469" t="s">
+      <c r="C4" s="459"/>
+      <c r="D4" s="459"/>
+      <c r="E4" s="459"/>
+      <c r="F4" s="459"/>
+      <c r="G4" s="460"/>
+      <c r="I4" s="492" t="s">
         <v>265</v>
       </c>
       <c r="J4" s="420"/>
@@ -40883,25 +40883,25 @@
       <c r="B5" s="367" t="s">
         <v>266</v>
       </c>
-      <c r="C5" s="470" t="s">
+      <c r="C5" s="485" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="471"/>
-      <c r="E5" s="471"/>
-      <c r="F5" s="471"/>
-      <c r="G5" s="472"/>
+      <c r="D5" s="486"/>
+      <c r="E5" s="486"/>
+      <c r="F5" s="486"/>
+      <c r="G5" s="487"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1">
       <c r="B6" s="368" t="s">
         <v>267</v>
       </c>
-      <c r="C6" s="470" t="s">
+      <c r="C6" s="485" t="s">
         <v>442</v>
       </c>
-      <c r="D6" s="471"/>
-      <c r="E6" s="471"/>
-      <c r="F6" s="471"/>
-      <c r="G6" s="472"/>
+      <c r="D6" s="486"/>
+      <c r="E6" s="486"/>
+      <c r="F6" s="486"/>
+      <c r="G6" s="487"/>
       <c r="I6" s="369" t="s">
         <v>268</v>
       </c>
@@ -40920,11 +40920,11 @@
       <c r="B7" s="368" t="s">
         <v>272</v>
       </c>
-      <c r="C7" s="470"/>
-      <c r="D7" s="471"/>
-      <c r="E7" s="471"/>
-      <c r="F7" s="471"/>
-      <c r="G7" s="472"/>
+      <c r="C7" s="485"/>
+      <c r="D7" s="486"/>
+      <c r="E7" s="486"/>
+      <c r="F7" s="486"/>
+      <c r="G7" s="487"/>
       <c r="I7" s="369"/>
       <c r="J7" s="369"/>
       <c r="L7" s="372"/>
@@ -40934,13 +40934,13 @@
       <c r="B8" s="367" t="s">
         <v>273</v>
       </c>
-      <c r="C8" s="470">
+      <c r="C8" s="485">
         <v>1</v>
       </c>
-      <c r="D8" s="471"/>
-      <c r="E8" s="471"/>
-      <c r="F8" s="471"/>
-      <c r="G8" s="472"/>
+      <c r="D8" s="486"/>
+      <c r="E8" s="486"/>
+      <c r="F8" s="486"/>
+      <c r="G8" s="487"/>
       <c r="I8" s="373">
         <f>C16</f>
         <v>48</v>
@@ -40955,13 +40955,13 @@
       <c r="B9" s="367" t="s">
         <v>274</v>
       </c>
-      <c r="C9" s="470" t="s">
+      <c r="C9" s="485" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="471"/>
-      <c r="E9" s="471"/>
-      <c r="F9" s="471"/>
-      <c r="G9" s="472"/>
+      <c r="D9" s="486"/>
+      <c r="E9" s="486"/>
+      <c r="F9" s="486"/>
+      <c r="G9" s="487"/>
       <c r="I9" s="373">
         <f>D16</f>
         <v>15</v>
@@ -40976,13 +40976,13 @@
       <c r="B10" s="367" t="s">
         <v>275</v>
       </c>
-      <c r="C10" s="470" t="s">
+      <c r="C10" s="485" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="471"/>
-      <c r="E10" s="471"/>
-      <c r="F10" s="471"/>
-      <c r="G10" s="472"/>
+      <c r="D10" s="486"/>
+      <c r="E10" s="486"/>
+      <c r="F10" s="486"/>
+      <c r="G10" s="487"/>
       <c r="I10" s="373">
         <f>E16</f>
         <v>5</v>
@@ -41000,13 +41000,13 @@
       <c r="B11" s="367" t="s">
         <v>276</v>
       </c>
-      <c r="C11" s="470" t="s">
+      <c r="C11" s="485" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="471"/>
-      <c r="E11" s="471"/>
-      <c r="F11" s="471"/>
-      <c r="G11" s="472"/>
+      <c r="D11" s="486"/>
+      <c r="E11" s="486"/>
+      <c r="F11" s="486"/>
+      <c r="G11" s="487"/>
       <c r="I11" s="373">
         <f>F16</f>
         <v>0</v>
@@ -41021,27 +41021,27 @@
       <c r="P11" s="374"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1">
-      <c r="B12" s="475" t="s">
+      <c r="B12" s="488" t="s">
         <v>278</v>
       </c>
-      <c r="C12" s="476"/>
-      <c r="D12" s="476"/>
-      <c r="E12" s="476"/>
-      <c r="F12" s="476"/>
-      <c r="G12" s="477"/>
+      <c r="C12" s="489"/>
+      <c r="D12" s="489"/>
+      <c r="E12" s="489"/>
+      <c r="F12" s="489"/>
+      <c r="G12" s="490"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1">
-      <c r="B13" s="478"/>
-      <c r="C13" s="479"/>
-      <c r="D13" s="479"/>
-      <c r="E13" s="479"/>
-      <c r="F13" s="479"/>
+      <c r="B13" s="469"/>
+      <c r="C13" s="470"/>
+      <c r="D13" s="470"/>
+      <c r="E13" s="470"/>
+      <c r="F13" s="470"/>
       <c r="G13" s="443"/>
-      <c r="I13" s="480" t="s">
+      <c r="I13" s="479" t="s">
         <v>279</v>
       </c>
-      <c r="J13" s="434"/>
-      <c r="K13" s="431"/>
+      <c r="J13" s="459"/>
+      <c r="K13" s="460"/>
       <c r="L13" s="377"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1">
@@ -41115,26 +41115,26 @@
       <c r="Z15" s="381"/>
     </row>
     <row r="16" spans="1:26" ht="12.75" customHeight="1">
-      <c r="B16" s="481" t="s">
+      <c r="B16" s="480" t="s">
         <v>283</v>
       </c>
-      <c r="C16" s="473">
+      <c r="C16" s="482">
         <f t="shared" ref="C16:G16" si="0">SUM(C15)</f>
         <v>48</v>
       </c>
-      <c r="D16" s="483">
+      <c r="D16" s="484">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E16" s="473">
+      <c r="E16" s="482">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F16" s="473">
+      <c r="F16" s="482">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G16" s="488">
+      <c r="G16" s="472">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
@@ -41147,12 +41147,12 @@
       <c r="R16" s="389"/>
     </row>
     <row r="17" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B17" s="482"/>
-      <c r="C17" s="474"/>
-      <c r="D17" s="474"/>
-      <c r="E17" s="474"/>
-      <c r="F17" s="474"/>
-      <c r="G17" s="489"/>
+      <c r="B17" s="481"/>
+      <c r="C17" s="483"/>
+      <c r="D17" s="483"/>
+      <c r="E17" s="483"/>
+      <c r="F17" s="483"/>
+      <c r="G17" s="473"/>
       <c r="L17" s="366"/>
       <c r="M17" s="389"/>
       <c r="N17" s="389"/>
@@ -41177,21 +41177,21 @@
       <c r="R18" s="374"/>
     </row>
     <row r="19" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B19" s="490" t="s">
+      <c r="B19" s="474" t="s">
         <v>284</v>
       </c>
-      <c r="C19" s="434"/>
-      <c r="D19" s="434"/>
-      <c r="E19" s="434"/>
-      <c r="F19" s="434"/>
-      <c r="G19" s="431"/>
+      <c r="C19" s="459"/>
+      <c r="D19" s="459"/>
+      <c r="E19" s="459"/>
+      <c r="F19" s="459"/>
+      <c r="G19" s="460"/>
     </row>
     <row r="20" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B20" s="491" t="s">
+      <c r="B20" s="475" t="s">
         <v>285</v>
       </c>
-      <c r="C20" s="434"/>
-      <c r="D20" s="431"/>
+      <c r="C20" s="459"/>
+      <c r="D20" s="460"/>
       <c r="E20" s="391"/>
       <c r="F20" s="391" t="s">
         <v>286</v>
@@ -41201,11 +41201,11 @@
       </c>
     </row>
     <row r="21" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B21" s="492" t="s">
+      <c r="B21" s="476" t="s">
         <v>288</v>
       </c>
-      <c r="C21" s="434"/>
-      <c r="D21" s="431"/>
+      <c r="C21" s="459"/>
+      <c r="D21" s="460"/>
       <c r="E21" s="392"/>
       <c r="F21" s="392" t="s">
         <v>51</v>
@@ -41215,11 +41215,11 @@
       </c>
     </row>
     <row r="22" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B22" s="492" t="s">
+      <c r="B22" s="476" t="s">
         <v>289</v>
       </c>
-      <c r="C22" s="434"/>
-      <c r="D22" s="431"/>
+      <c r="C22" s="459"/>
+      <c r="D22" s="460"/>
       <c r="E22" s="392"/>
       <c r="F22" s="392" t="s">
         <v>51</v>
@@ -41230,305 +41230,305 @@
     </row>
     <row r="23" spans="2:18" ht="15.75" customHeight="1"/>
     <row r="24" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B24" s="466"/>
-      <c r="C24" s="493" t="s">
+      <c r="B24" s="493"/>
+      <c r="C24" s="477" t="s">
         <v>290</v>
       </c>
-      <c r="D24" s="494" t="s">
+      <c r="D24" s="478" t="s">
         <v>291</v>
       </c>
-      <c r="E24" s="485"/>
-      <c r="F24" s="485"/>
-      <c r="G24" s="486"/>
+      <c r="E24" s="466"/>
+      <c r="F24" s="466"/>
+      <c r="G24" s="467"/>
     </row>
     <row r="25" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B25" s="436"/>
-      <c r="C25" s="436"/>
-      <c r="D25" s="487"/>
+      <c r="B25" s="439"/>
+      <c r="C25" s="439"/>
+      <c r="D25" s="468"/>
       <c r="E25" s="420"/>
       <c r="F25" s="420"/>
       <c r="G25" s="442"/>
     </row>
     <row r="26" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B26" s="436"/>
-      <c r="C26" s="436"/>
-      <c r="D26" s="487"/>
+      <c r="B26" s="439"/>
+      <c r="C26" s="439"/>
+      <c r="D26" s="468"/>
       <c r="E26" s="420"/>
       <c r="F26" s="420"/>
       <c r="G26" s="442"/>
     </row>
     <row r="27" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B27" s="437"/>
-      <c r="C27" s="437"/>
-      <c r="D27" s="478"/>
-      <c r="E27" s="479"/>
-      <c r="F27" s="479"/>
+      <c r="B27" s="440"/>
+      <c r="C27" s="440"/>
+      <c r="D27" s="469"/>
+      <c r="E27" s="470"/>
+      <c r="F27" s="470"/>
       <c r="G27" s="443"/>
     </row>
     <row r="28" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B28" s="465" t="s">
+      <c r="B28" s="471" t="s">
         <v>292</v>
       </c>
-      <c r="C28" s="467" t="s">
+      <c r="C28" s="494" t="s">
         <v>293</v>
       </c>
-      <c r="D28" s="484" t="s">
+      <c r="D28" s="465" t="s">
         <v>294</v>
       </c>
-      <c r="E28" s="485"/>
-      <c r="F28" s="485"/>
-      <c r="G28" s="486"/>
+      <c r="E28" s="466"/>
+      <c r="F28" s="466"/>
+      <c r="G28" s="467"/>
     </row>
     <row r="29" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B29" s="436"/>
-      <c r="C29" s="436"/>
-      <c r="D29" s="487"/>
+      <c r="B29" s="439"/>
+      <c r="C29" s="439"/>
+      <c r="D29" s="468"/>
       <c r="E29" s="420"/>
       <c r="F29" s="420"/>
       <c r="G29" s="442"/>
     </row>
     <row r="30" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B30" s="436"/>
-      <c r="C30" s="436"/>
-      <c r="D30" s="487"/>
+      <c r="B30" s="439"/>
+      <c r="C30" s="439"/>
+      <c r="D30" s="468"/>
       <c r="E30" s="420"/>
       <c r="F30" s="420"/>
       <c r="G30" s="442"/>
     </row>
     <row r="31" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B31" s="437"/>
-      <c r="C31" s="437"/>
-      <c r="D31" s="478"/>
-      <c r="E31" s="479"/>
-      <c r="F31" s="479"/>
+      <c r="B31" s="440"/>
+      <c r="C31" s="440"/>
+      <c r="D31" s="469"/>
+      <c r="E31" s="470"/>
+      <c r="F31" s="470"/>
       <c r="G31" s="443"/>
     </row>
     <row r="32" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B32" s="465" t="s">
+      <c r="B32" s="471" t="s">
         <v>292</v>
       </c>
-      <c r="C32" s="467" t="s">
+      <c r="C32" s="494" t="s">
         <v>295</v>
       </c>
-      <c r="D32" s="484" t="s">
+      <c r="D32" s="465" t="s">
         <v>296</v>
       </c>
-      <c r="E32" s="485"/>
-      <c r="F32" s="485"/>
-      <c r="G32" s="486"/>
+      <c r="E32" s="466"/>
+      <c r="F32" s="466"/>
+      <c r="G32" s="467"/>
     </row>
     <row r="33" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B33" s="436"/>
-      <c r="C33" s="436"/>
-      <c r="D33" s="487"/>
+      <c r="B33" s="439"/>
+      <c r="C33" s="439"/>
+      <c r="D33" s="468"/>
       <c r="E33" s="420"/>
       <c r="F33" s="420"/>
       <c r="G33" s="442"/>
     </row>
     <row r="34" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B34" s="436"/>
-      <c r="C34" s="436"/>
-      <c r="D34" s="487"/>
+      <c r="B34" s="439"/>
+      <c r="C34" s="439"/>
+      <c r="D34" s="468"/>
       <c r="E34" s="420"/>
       <c r="F34" s="420"/>
       <c r="G34" s="442"/>
     </row>
     <row r="35" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B35" s="437"/>
-      <c r="C35" s="437"/>
-      <c r="D35" s="478"/>
-      <c r="E35" s="479"/>
-      <c r="F35" s="479"/>
+      <c r="B35" s="440"/>
+      <c r="C35" s="440"/>
+      <c r="D35" s="469"/>
+      <c r="E35" s="470"/>
+      <c r="F35" s="470"/>
       <c r="G35" s="443"/>
     </row>
     <row r="36" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B36" s="465" t="s">
+      <c r="B36" s="471" t="s">
         <v>292</v>
       </c>
-      <c r="C36" s="467" t="s">
+      <c r="C36" s="494" t="s">
         <v>297</v>
       </c>
-      <c r="D36" s="484" t="s">
+      <c r="D36" s="465" t="s">
         <v>298</v>
       </c>
-      <c r="E36" s="485"/>
-      <c r="F36" s="485"/>
-      <c r="G36" s="486"/>
+      <c r="E36" s="466"/>
+      <c r="F36" s="466"/>
+      <c r="G36" s="467"/>
     </row>
     <row r="37" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B37" s="436"/>
-      <c r="C37" s="436"/>
-      <c r="D37" s="487"/>
+      <c r="B37" s="439"/>
+      <c r="C37" s="439"/>
+      <c r="D37" s="468"/>
       <c r="E37" s="420"/>
       <c r="F37" s="420"/>
       <c r="G37" s="442"/>
     </row>
     <row r="38" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B38" s="436"/>
-      <c r="C38" s="436"/>
-      <c r="D38" s="487"/>
+      <c r="B38" s="439"/>
+      <c r="C38" s="439"/>
+      <c r="D38" s="468"/>
       <c r="E38" s="420"/>
       <c r="F38" s="420"/>
       <c r="G38" s="442"/>
     </row>
     <row r="39" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B39" s="437"/>
-      <c r="C39" s="437"/>
-      <c r="D39" s="478"/>
-      <c r="E39" s="479"/>
-      <c r="F39" s="479"/>
+      <c r="B39" s="440"/>
+      <c r="C39" s="440"/>
+      <c r="D39" s="469"/>
+      <c r="E39" s="470"/>
+      <c r="F39" s="470"/>
       <c r="G39" s="443"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B40" s="465" t="s">
+      <c r="B40" s="471" t="s">
         <v>292</v>
       </c>
-      <c r="C40" s="467" t="s">
+      <c r="C40" s="494" t="s">
         <v>299</v>
       </c>
-      <c r="D40" s="484" t="s">
+      <c r="D40" s="465" t="s">
         <v>300</v>
       </c>
-      <c r="E40" s="485"/>
-      <c r="F40" s="485"/>
-      <c r="G40" s="486"/>
+      <c r="E40" s="466"/>
+      <c r="F40" s="466"/>
+      <c r="G40" s="467"/>
     </row>
     <row r="41" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B41" s="436"/>
-      <c r="C41" s="436"/>
-      <c r="D41" s="487"/>
+      <c r="B41" s="439"/>
+      <c r="C41" s="439"/>
+      <c r="D41" s="468"/>
       <c r="E41" s="420"/>
       <c r="F41" s="420"/>
       <c r="G41" s="442"/>
     </row>
     <row r="42" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B42" s="436"/>
-      <c r="C42" s="436"/>
-      <c r="D42" s="487"/>
+      <c r="B42" s="439"/>
+      <c r="C42" s="439"/>
+      <c r="D42" s="468"/>
       <c r="E42" s="420"/>
       <c r="F42" s="420"/>
       <c r="G42" s="442"/>
     </row>
     <row r="43" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B43" s="437"/>
-      <c r="C43" s="437"/>
-      <c r="D43" s="478"/>
-      <c r="E43" s="479"/>
-      <c r="F43" s="479"/>
+      <c r="B43" s="440"/>
+      <c r="C43" s="440"/>
+      <c r="D43" s="469"/>
+      <c r="E43" s="470"/>
+      <c r="F43" s="470"/>
       <c r="G43" s="443"/>
     </row>
     <row r="44" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B44" s="465" t="s">
+      <c r="B44" s="471" t="s">
         <v>292</v>
       </c>
-      <c r="C44" s="465" t="s">
+      <c r="C44" s="471" t="s">
         <v>301</v>
       </c>
-      <c r="D44" s="484" t="s">
+      <c r="D44" s="465" t="s">
         <v>302</v>
       </c>
-      <c r="E44" s="485"/>
-      <c r="F44" s="485"/>
-      <c r="G44" s="486"/>
+      <c r="E44" s="466"/>
+      <c r="F44" s="466"/>
+      <c r="G44" s="467"/>
     </row>
     <row r="45" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B45" s="436"/>
-      <c r="C45" s="436"/>
-      <c r="D45" s="487"/>
+      <c r="B45" s="439"/>
+      <c r="C45" s="439"/>
+      <c r="D45" s="468"/>
       <c r="E45" s="420"/>
       <c r="F45" s="420"/>
       <c r="G45" s="442"/>
     </row>
     <row r="46" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B46" s="436"/>
-      <c r="C46" s="436"/>
-      <c r="D46" s="487"/>
+      <c r="B46" s="439"/>
+      <c r="C46" s="439"/>
+      <c r="D46" s="468"/>
       <c r="E46" s="420"/>
       <c r="F46" s="420"/>
       <c r="G46" s="442"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B47" s="437"/>
-      <c r="C47" s="437"/>
-      <c r="D47" s="478"/>
-      <c r="E47" s="479"/>
-      <c r="F47" s="479"/>
+      <c r="B47" s="440"/>
+      <c r="C47" s="440"/>
+      <c r="D47" s="469"/>
+      <c r="E47" s="470"/>
+      <c r="F47" s="470"/>
       <c r="G47" s="443"/>
     </row>
     <row r="48" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B48" s="465" t="s">
+      <c r="B48" s="471" t="s">
         <v>292</v>
       </c>
-      <c r="C48" s="465" t="s">
+      <c r="C48" s="471" t="s">
         <v>303</v>
       </c>
-      <c r="D48" s="484" t="s">
+      <c r="D48" s="465" t="s">
         <v>304</v>
       </c>
-      <c r="E48" s="485"/>
-      <c r="F48" s="485"/>
-      <c r="G48" s="486"/>
+      <c r="E48" s="466"/>
+      <c r="F48" s="466"/>
+      <c r="G48" s="467"/>
     </row>
     <row r="49" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B49" s="436"/>
-      <c r="C49" s="436"/>
-      <c r="D49" s="487"/>
+      <c r="B49" s="439"/>
+      <c r="C49" s="439"/>
+      <c r="D49" s="468"/>
       <c r="E49" s="420"/>
       <c r="F49" s="420"/>
       <c r="G49" s="442"/>
     </row>
     <row r="50" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B50" s="436"/>
-      <c r="C50" s="436"/>
-      <c r="D50" s="487"/>
+      <c r="B50" s="439"/>
+      <c r="C50" s="439"/>
+      <c r="D50" s="468"/>
       <c r="E50" s="420"/>
       <c r="F50" s="420"/>
       <c r="G50" s="442"/>
     </row>
     <row r="51" spans="2:7" ht="33.75" customHeight="1">
-      <c r="B51" s="437"/>
-      <c r="C51" s="437"/>
-      <c r="D51" s="478"/>
-      <c r="E51" s="479"/>
-      <c r="F51" s="479"/>
+      <c r="B51" s="440"/>
+      <c r="C51" s="440"/>
+      <c r="D51" s="469"/>
+      <c r="E51" s="470"/>
+      <c r="F51" s="470"/>
       <c r="G51" s="443"/>
     </row>
     <row r="52" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B52" s="465" t="s">
+      <c r="B52" s="471" t="s">
         <v>292</v>
       </c>
-      <c r="C52" s="465" t="s">
+      <c r="C52" s="471" t="s">
         <v>305</v>
       </c>
-      <c r="D52" s="484" t="s">
+      <c r="D52" s="465" t="s">
         <v>306</v>
       </c>
-      <c r="E52" s="485"/>
-      <c r="F52" s="485"/>
-      <c r="G52" s="486"/>
+      <c r="E52" s="466"/>
+      <c r="F52" s="466"/>
+      <c r="G52" s="467"/>
     </row>
     <row r="53" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B53" s="436"/>
-      <c r="C53" s="436"/>
-      <c r="D53" s="487"/>
+      <c r="B53" s="439"/>
+      <c r="C53" s="439"/>
+      <c r="D53" s="468"/>
       <c r="E53" s="420"/>
       <c r="F53" s="420"/>
       <c r="G53" s="442"/>
     </row>
     <row r="54" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B54" s="436"/>
-      <c r="C54" s="436"/>
-      <c r="D54" s="487"/>
+      <c r="B54" s="439"/>
+      <c r="C54" s="439"/>
+      <c r="D54" s="468"/>
       <c r="E54" s="420"/>
       <c r="F54" s="420"/>
       <c r="G54" s="442"/>
     </row>
     <row r="55" spans="2:7" ht="39" customHeight="1">
-      <c r="B55" s="437"/>
-      <c r="C55" s="437"/>
-      <c r="D55" s="478"/>
-      <c r="E55" s="479"/>
-      <c r="F55" s="479"/>
+      <c r="B55" s="440"/>
+      <c r="C55" s="440"/>
+      <c r="D55" s="469"/>
+      <c r="E55" s="470"/>
+      <c r="F55" s="470"/>
       <c r="G55" s="443"/>
     </row>
     <row r="56" spans="2:7" ht="15.75" customHeight="1"/>
@@ -42478,12 +42478,26 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="D52:G55"/>
-    <mergeCell ref="D40:G43"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="C44:C47"/>
-    <mergeCell ref="D44:G47"/>
-    <mergeCell ref="D48:G51"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="B12:G13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D28:G31"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C31"/>
     <mergeCell ref="D32:G35"/>
     <mergeCell ref="D36:G39"/>
     <mergeCell ref="G16:G17"/>
@@ -42493,34 +42507,20 @@
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="C24:C27"/>
     <mergeCell ref="D24:G27"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D28:G31"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="B12:G13"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="D52:G55"/>
+    <mergeCell ref="D40:G43"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="D44:G47"/>
+    <mergeCell ref="D48:G51"/>
     <mergeCell ref="B48:B51"/>
     <mergeCell ref="C48:C51"/>
     <mergeCell ref="B52:B55"/>
     <mergeCell ref="C52:C55"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="C36:C39"/>
     <mergeCell ref="B40:B43"/>
     <mergeCell ref="C40:C43"/>
   </mergeCells>
@@ -42556,49 +42556,49 @@
       <c r="D4" s="4"/>
     </row>
     <row r="5" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B5" s="495" t="s">
+      <c r="B5" s="498" t="s">
         <v>307</v>
       </c>
       <c r="C5" s="394"/>
-      <c r="E5" s="496" t="s">
+      <c r="E5" s="513" t="s">
         <v>307</v>
       </c>
-      <c r="F5" s="497"/>
+      <c r="F5" s="500"/>
     </row>
     <row r="6" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B6" s="450"/>
+      <c r="B6" s="431"/>
       <c r="C6" s="394"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="498"/>
-      <c r="F6" s="459"/>
+      <c r="E6" s="501"/>
+      <c r="F6" s="448"/>
     </row>
     <row r="7" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B7" s="429"/>
+      <c r="B7" s="422"/>
       <c r="C7" s="394"/>
-      <c r="E7" s="499"/>
-      <c r="F7" s="422"/>
+      <c r="E7" s="502"/>
+      <c r="F7" s="424"/>
     </row>
     <row r="8" spans="2:6" ht="13.5" customHeight="1">
       <c r="B8" s="395"/>
       <c r="C8" s="394"/>
-      <c r="E8" s="500"/>
-      <c r="F8" s="497"/>
+      <c r="E8" s="514"/>
+      <c r="F8" s="500"/>
     </row>
     <row r="9" spans="2:6" ht="13.5" customHeight="1">
       <c r="B9" s="396" t="s">
         <v>308</v>
       </c>
       <c r="C9" s="394"/>
-      <c r="E9" s="501" t="s">
+      <c r="E9" s="506" t="s">
         <v>309</v>
       </c>
-      <c r="F9" s="459"/>
+      <c r="F9" s="448"/>
     </row>
     <row r="10" spans="2:6" ht="13.5" customHeight="1">
       <c r="B10" s="396"/>
       <c r="C10" s="394"/>
-      <c r="E10" s="502"/>
-      <c r="F10" s="459"/>
+      <c r="E10" s="511"/>
+      <c r="F10" s="448"/>
     </row>
     <row r="11" spans="2:6" ht="13.5" customHeight="1">
       <c r="B11" s="396" t="s">
@@ -42606,10 +42606,10 @@
       </c>
       <c r="C11" s="394"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="503" t="s">
+      <c r="E11" s="507" t="s">
         <v>311</v>
       </c>
-      <c r="F11" s="459"/>
+      <c r="F11" s="448"/>
     </row>
     <row r="12" spans="2:6" ht="13.5" customHeight="1">
       <c r="B12" s="396"/>
@@ -42622,20 +42622,20 @@
         <v>312</v>
       </c>
       <c r="C13" s="394"/>
-      <c r="E13" s="501" t="s">
+      <c r="E13" s="506" t="s">
         <v>312</v>
       </c>
-      <c r="F13" s="459"/>
+      <c r="F13" s="448"/>
     </row>
     <row r="14" spans="2:6" ht="13.5" customHeight="1">
       <c r="B14" s="399" t="s">
         <v>313</v>
       </c>
       <c r="C14" s="394"/>
-      <c r="E14" s="503" t="s">
+      <c r="E14" s="507" t="s">
         <v>314</v>
       </c>
-      <c r="F14" s="459"/>
+      <c r="F14" s="448"/>
     </row>
     <row r="15" spans="2:6" ht="13.5" customHeight="1">
       <c r="B15" s="400" t="s">
@@ -42643,94 +42643,94 @@
       </c>
       <c r="C15" s="394"/>
       <c r="D15" s="401"/>
-      <c r="E15" s="503" t="s">
+      <c r="E15" s="507" t="s">
         <v>316</v>
       </c>
-      <c r="F15" s="459"/>
+      <c r="F15" s="448"/>
     </row>
     <row r="16" spans="2:6" ht="13.5" customHeight="1">
       <c r="B16" s="400" t="s">
         <v>317</v>
       </c>
       <c r="C16" s="394"/>
-      <c r="E16" s="503" t="s">
+      <c r="E16" s="507" t="s">
         <v>318</v>
       </c>
-      <c r="F16" s="459"/>
+      <c r="F16" s="448"/>
     </row>
     <row r="17" spans="2:6" ht="13.5" customHeight="1">
       <c r="B17" s="400" t="s">
         <v>319</v>
       </c>
       <c r="C17" s="394"/>
-      <c r="E17" s="502"/>
-      <c r="F17" s="459"/>
+      <c r="E17" s="511"/>
+      <c r="F17" s="448"/>
     </row>
     <row r="18" spans="2:6" ht="13.5" customHeight="1">
       <c r="B18" s="396" t="s">
         <v>320</v>
       </c>
       <c r="C18" s="394"/>
-      <c r="E18" s="501" t="s">
+      <c r="E18" s="506" t="s">
         <v>320</v>
       </c>
-      <c r="F18" s="459"/>
+      <c r="F18" s="448"/>
     </row>
     <row r="19" spans="2:6" ht="13.5" customHeight="1">
       <c r="B19" s="396" t="s">
         <v>321</v>
       </c>
       <c r="C19" s="394"/>
-      <c r="E19" s="502" t="s">
+      <c r="E19" s="511" t="s">
         <v>322</v>
       </c>
-      <c r="F19" s="459"/>
+      <c r="F19" s="448"/>
     </row>
     <row r="20" spans="2:6" ht="13.5" customHeight="1">
       <c r="B20" s="396" t="s">
         <v>323</v>
       </c>
       <c r="C20" s="394"/>
-      <c r="E20" s="503" t="s">
+      <c r="E20" s="507" t="s">
         <v>324</v>
       </c>
-      <c r="F20" s="459"/>
+      <c r="F20" s="448"/>
     </row>
     <row r="21" spans="2:6" ht="13.5" customHeight="1">
       <c r="B21" s="396" t="s">
         <v>325</v>
       </c>
       <c r="C21" s="394"/>
-      <c r="E21" s="503" t="s">
+      <c r="E21" s="507" t="s">
         <v>326</v>
       </c>
-      <c r="F21" s="459"/>
+      <c r="F21" s="448"/>
     </row>
     <row r="22" spans="2:6" ht="13.5" customHeight="1">
       <c r="B22" s="396" t="s">
         <v>327</v>
       </c>
       <c r="C22" s="394"/>
-      <c r="E22" s="503" t="s">
+      <c r="E22" s="507" t="s">
         <v>328</v>
       </c>
-      <c r="F22" s="459"/>
+      <c r="F22" s="448"/>
     </row>
     <row r="23" spans="2:6" ht="13.5" customHeight="1">
       <c r="B23" s="396" t="s">
         <v>329</v>
       </c>
       <c r="C23" s="394"/>
-      <c r="E23" s="503" t="s">
+      <c r="E23" s="507" t="s">
         <v>330</v>
       </c>
-      <c r="F23" s="459"/>
+      <c r="F23" s="448"/>
     </row>
     <row r="24" spans="2:6" ht="13.5" customHeight="1">
       <c r="B24" s="396"/>
       <c r="C24" s="394"/>
-      <c r="E24" s="502"/>
-      <c r="F24" s="459"/>
+      <c r="E24" s="511"/>
+      <c r="F24" s="448"/>
     </row>
     <row r="25" spans="2:6" ht="13.5" customHeight="1">
       <c r="B25" s="402" t="s">
@@ -42740,7 +42740,7 @@
       <c r="E25" s="504" t="s">
         <v>332</v>
       </c>
-      <c r="F25" s="422"/>
+      <c r="F25" s="424"/>
     </row>
     <row r="26" spans="2:6" ht="13.5" customHeight="1">
       <c r="B26" s="394"/>
@@ -42751,172 +42751,172 @@
       <c r="C27" s="394"/>
     </row>
     <row r="28" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B28" s="505" t="s">
+      <c r="B28" s="497" t="s">
         <v>307</v>
       </c>
       <c r="C28" s="394"/>
-      <c r="E28" s="506" t="s">
+      <c r="E28" s="512" t="s">
         <v>307</v>
       </c>
-      <c r="F28" s="497"/>
+      <c r="F28" s="500"/>
     </row>
     <row r="29" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B29" s="450"/>
+      <c r="B29" s="431"/>
       <c r="C29" s="394"/>
-      <c r="E29" s="498"/>
-      <c r="F29" s="459"/>
+      <c r="E29" s="501"/>
+      <c r="F29" s="448"/>
     </row>
     <row r="30" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B30" s="429"/>
+      <c r="B30" s="422"/>
       <c r="C30" s="394"/>
-      <c r="E30" s="499"/>
-      <c r="F30" s="422"/>
+      <c r="E30" s="502"/>
+      <c r="F30" s="424"/>
     </row>
     <row r="31" spans="2:6" ht="13.5" customHeight="1">
       <c r="B31" s="395"/>
       <c r="C31" s="394"/>
-      <c r="E31" s="503"/>
-      <c r="F31" s="459"/>
+      <c r="E31" s="507"/>
+      <c r="F31" s="448"/>
     </row>
     <row r="32" spans="2:6" ht="13.5" customHeight="1">
       <c r="B32" s="396" t="s">
         <v>333</v>
       </c>
       <c r="C32" s="394"/>
-      <c r="E32" s="501" t="s">
+      <c r="E32" s="506" t="s">
         <v>334</v>
       </c>
-      <c r="F32" s="459"/>
+      <c r="F32" s="448"/>
     </row>
     <row r="33" spans="2:6" ht="13.5" customHeight="1">
       <c r="B33" s="396"/>
       <c r="C33" s="394"/>
-      <c r="E33" s="503"/>
-      <c r="F33" s="459"/>
+      <c r="E33" s="507"/>
+      <c r="F33" s="448"/>
     </row>
     <row r="34" spans="2:6" ht="13.5" customHeight="1">
       <c r="B34" s="396" t="s">
         <v>335</v>
       </c>
       <c r="C34" s="394"/>
-      <c r="E34" s="503" t="s">
+      <c r="E34" s="507" t="s">
         <v>336</v>
       </c>
-      <c r="F34" s="459"/>
+      <c r="F34" s="448"/>
     </row>
     <row r="35" spans="2:6" ht="13.5" customHeight="1">
       <c r="B35" s="396"/>
       <c r="C35" s="394"/>
-      <c r="E35" s="503"/>
-      <c r="F35" s="459"/>
+      <c r="E35" s="507"/>
+      <c r="F35" s="448"/>
     </row>
     <row r="36" spans="2:6" ht="13.5" customHeight="1">
       <c r="B36" s="396" t="s">
         <v>312</v>
       </c>
       <c r="C36" s="394"/>
-      <c r="E36" s="501" t="s">
+      <c r="E36" s="506" t="s">
         <v>312</v>
       </c>
-      <c r="F36" s="459"/>
+      <c r="F36" s="448"/>
     </row>
     <row r="37" spans="2:6" ht="13.5" customHeight="1">
       <c r="B37" s="399" t="s">
         <v>337</v>
       </c>
       <c r="C37" s="394"/>
-      <c r="E37" s="503" t="s">
+      <c r="E37" s="507" t="s">
         <v>314</v>
       </c>
-      <c r="F37" s="459"/>
+      <c r="F37" s="448"/>
     </row>
     <row r="38" spans="2:6" ht="13.5" customHeight="1">
       <c r="B38" s="400" t="s">
         <v>338</v>
       </c>
       <c r="C38" s="394"/>
-      <c r="E38" s="503" t="s">
+      <c r="E38" s="507" t="s">
         <v>339</v>
       </c>
-      <c r="F38" s="459"/>
+      <c r="F38" s="448"/>
     </row>
     <row r="39" spans="2:6" ht="13.5" customHeight="1">
       <c r="B39" s="400"/>
       <c r="C39" s="394"/>
-      <c r="E39" s="503"/>
-      <c r="F39" s="459"/>
+      <c r="E39" s="507"/>
+      <c r="F39" s="448"/>
     </row>
     <row r="40" spans="2:6" ht="13.5" customHeight="1">
       <c r="B40" s="396"/>
       <c r="C40" s="394"/>
-      <c r="E40" s="503"/>
-      <c r="F40" s="459"/>
+      <c r="E40" s="507"/>
+      <c r="F40" s="448"/>
     </row>
     <row r="41" spans="2:6" ht="13.5" customHeight="1">
       <c r="B41" s="396" t="s">
         <v>340</v>
       </c>
       <c r="C41" s="394"/>
-      <c r="E41" s="501" t="s">
+      <c r="E41" s="506" t="s">
         <v>320</v>
       </c>
-      <c r="F41" s="459"/>
+      <c r="F41" s="448"/>
     </row>
     <row r="42" spans="2:6" ht="13.5" customHeight="1">
       <c r="B42" s="396" t="s">
         <v>341</v>
       </c>
       <c r="C42" s="394"/>
-      <c r="E42" s="503" t="s">
+      <c r="E42" s="507" t="s">
         <v>342</v>
       </c>
-      <c r="F42" s="459"/>
+      <c r="F42" s="448"/>
     </row>
     <row r="43" spans="2:6" ht="13.5" customHeight="1">
       <c r="B43" s="396" t="s">
         <v>343</v>
       </c>
       <c r="C43" s="394"/>
-      <c r="E43" s="503" t="s">
+      <c r="E43" s="507" t="s">
         <v>344</v>
       </c>
-      <c r="F43" s="459"/>
+      <c r="F43" s="448"/>
     </row>
     <row r="44" spans="2:6" ht="13.5" customHeight="1">
       <c r="B44" s="396" t="s">
         <v>345</v>
       </c>
       <c r="C44" s="394"/>
-      <c r="E44" s="503" t="s">
+      <c r="E44" s="507" t="s">
         <v>346</v>
       </c>
-      <c r="F44" s="459"/>
+      <c r="F44" s="448"/>
     </row>
     <row r="45" spans="2:6" ht="13.5" customHeight="1">
       <c r="B45" s="403" t="s">
         <v>347</v>
       </c>
       <c r="C45" s="394"/>
-      <c r="E45" s="507" t="s">
+      <c r="E45" s="510" t="s">
         <v>348</v>
       </c>
-      <c r="F45" s="459"/>
+      <c r="F45" s="448"/>
     </row>
     <row r="46" spans="2:6" ht="13.5" customHeight="1">
       <c r="B46" s="396" t="s">
         <v>349</v>
       </c>
       <c r="C46" s="394"/>
-      <c r="E46" s="503" t="s">
+      <c r="E46" s="507" t="s">
         <v>350</v>
       </c>
-      <c r="F46" s="459"/>
+      <c r="F46" s="448"/>
     </row>
     <row r="47" spans="2:6" ht="13.5" customHeight="1">
       <c r="B47" s="396"/>
       <c r="C47" s="394"/>
-      <c r="E47" s="503"/>
-      <c r="F47" s="459"/>
+      <c r="E47" s="507"/>
+      <c r="F47" s="448"/>
     </row>
     <row r="48" spans="2:6" ht="13.5" customHeight="1">
       <c r="B48" s="402" t="s">
@@ -42926,7 +42926,7 @@
       <c r="E48" s="504" t="s">
         <v>352</v>
       </c>
-      <c r="F48" s="422"/>
+      <c r="F48" s="424"/>
     </row>
     <row r="49" spans="2:6" ht="13.5" customHeight="1">
       <c r="B49" s="394"/>
@@ -42945,197 +42945,197 @@
       <c r="C52" s="393"/>
     </row>
     <row r="53" spans="2:6" ht="12.75" customHeight="1">
-      <c r="B53" s="495" t="s">
+      <c r="B53" s="498" t="s">
         <v>307</v>
       </c>
-      <c r="E53" s="508" t="s">
+      <c r="E53" s="509" t="s">
         <v>307</v>
       </c>
-      <c r="F53" s="497"/>
+      <c r="F53" s="500"/>
     </row>
     <row r="54" spans="2:6" ht="12.75" customHeight="1">
-      <c r="B54" s="450"/>
-      <c r="E54" s="498"/>
-      <c r="F54" s="459"/>
+      <c r="B54" s="431"/>
+      <c r="E54" s="501"/>
+      <c r="F54" s="448"/>
     </row>
     <row r="55" spans="2:6" ht="12.75" customHeight="1">
-      <c r="B55" s="429"/>
-      <c r="E55" s="499"/>
-      <c r="F55" s="422"/>
+      <c r="B55" s="422"/>
+      <c r="E55" s="502"/>
+      <c r="F55" s="424"/>
     </row>
     <row r="56" spans="2:6" ht="12.75" customHeight="1">
       <c r="B56" s="395"/>
-      <c r="E56" s="509"/>
-      <c r="F56" s="425"/>
+      <c r="E56" s="495"/>
+      <c r="F56" s="427"/>
     </row>
     <row r="57" spans="2:6" ht="12.75" customHeight="1">
       <c r="B57" s="396" t="s">
         <v>353</v>
       </c>
-      <c r="E57" s="510" t="s">
+      <c r="E57" s="508" t="s">
         <v>354</v>
       </c>
-      <c r="F57" s="425"/>
+      <c r="F57" s="427"/>
     </row>
     <row r="58" spans="2:6" ht="12.75" customHeight="1">
       <c r="B58" s="396"/>
-      <c r="E58" s="509"/>
-      <c r="F58" s="425"/>
+      <c r="E58" s="495"/>
+      <c r="F58" s="427"/>
     </row>
     <row r="59" spans="2:6" ht="12.75" customHeight="1">
       <c r="B59" s="396" t="s">
         <v>355</v>
       </c>
-      <c r="E59" s="510" t="s">
+      <c r="E59" s="508" t="s">
         <v>356</v>
       </c>
-      <c r="F59" s="425"/>
+      <c r="F59" s="427"/>
     </row>
     <row r="60" spans="2:6" ht="12.75" customHeight="1">
       <c r="B60" s="396"/>
-      <c r="E60" s="509"/>
-      <c r="F60" s="425"/>
+      <c r="E60" s="495"/>
+      <c r="F60" s="427"/>
     </row>
     <row r="61" spans="2:6" ht="12.75" customHeight="1">
       <c r="B61" s="396" t="s">
         <v>312</v>
       </c>
-      <c r="E61" s="510" t="s">
+      <c r="E61" s="508" t="s">
         <v>312</v>
       </c>
-      <c r="F61" s="425"/>
+      <c r="F61" s="427"/>
     </row>
     <row r="62" spans="2:6" ht="12.75" customHeight="1">
       <c r="B62" s="400" t="s">
         <v>357</v>
       </c>
-      <c r="E62" s="509" t="s">
+      <c r="E62" s="495" t="s">
         <v>314</v>
       </c>
-      <c r="F62" s="425"/>
+      <c r="F62" s="427"/>
     </row>
     <row r="63" spans="2:6" ht="12.75" customHeight="1">
       <c r="B63" s="400" t="s">
         <v>338</v>
       </c>
-      <c r="E63" s="509" t="s">
+      <c r="E63" s="495" t="s">
         <v>358</v>
       </c>
-      <c r="F63" s="425"/>
+      <c r="F63" s="427"/>
     </row>
     <row r="64" spans="2:6" ht="12.75" customHeight="1">
       <c r="B64" s="400" t="s">
         <v>359</v>
       </c>
-      <c r="E64" s="509" t="s">
+      <c r="E64" s="495" t="s">
         <v>318</v>
       </c>
-      <c r="F64" s="425"/>
+      <c r="F64" s="427"/>
     </row>
     <row r="65" spans="2:6" ht="12.75" customHeight="1">
       <c r="B65" s="400" t="s">
         <v>360</v>
       </c>
-      <c r="E65" s="509"/>
-      <c r="F65" s="425"/>
+      <c r="E65" s="495"/>
+      <c r="F65" s="427"/>
     </row>
     <row r="66" spans="2:6" ht="12.75" customHeight="1">
       <c r="B66" s="400"/>
-      <c r="E66" s="509"/>
-      <c r="F66" s="425"/>
+      <c r="E66" s="495"/>
+      <c r="F66" s="427"/>
     </row>
     <row r="67" spans="2:6" ht="12.75" customHeight="1">
       <c r="B67" s="400"/>
-      <c r="E67" s="509"/>
-      <c r="F67" s="425"/>
+      <c r="E67" s="495"/>
+      <c r="F67" s="427"/>
     </row>
     <row r="68" spans="2:6" ht="12.75" customHeight="1">
       <c r="B68" s="400"/>
-      <c r="E68" s="509"/>
-      <c r="F68" s="425"/>
+      <c r="E68" s="495"/>
+      <c r="F68" s="427"/>
     </row>
     <row r="69" spans="2:6" ht="12.75" customHeight="1">
       <c r="B69" s="400"/>
-      <c r="E69" s="509"/>
-      <c r="F69" s="425"/>
+      <c r="E69" s="495"/>
+      <c r="F69" s="427"/>
     </row>
     <row r="70" spans="2:6" ht="12.75" customHeight="1">
       <c r="B70" s="396"/>
-      <c r="E70" s="509"/>
-      <c r="F70" s="425"/>
+      <c r="E70" s="495"/>
+      <c r="F70" s="427"/>
     </row>
     <row r="71" spans="2:6" ht="12.75" customHeight="1">
       <c r="B71" s="396"/>
-      <c r="E71" s="509"/>
-      <c r="F71" s="425"/>
+      <c r="E71" s="495"/>
+      <c r="F71" s="427"/>
     </row>
     <row r="72" spans="2:6" ht="12.75" customHeight="1">
       <c r="B72" s="396" t="s">
         <v>320</v>
       </c>
-      <c r="E72" s="510" t="s">
+      <c r="E72" s="508" t="s">
         <v>320</v>
       </c>
-      <c r="F72" s="425"/>
+      <c r="F72" s="427"/>
     </row>
     <row r="73" spans="2:6" ht="12.75" customHeight="1">
       <c r="B73" s="396" t="s">
         <v>361</v>
       </c>
-      <c r="E73" s="509" t="s">
+      <c r="E73" s="495" t="s">
         <v>362</v>
       </c>
-      <c r="F73" s="425"/>
+      <c r="F73" s="427"/>
     </row>
     <row r="74" spans="2:6" ht="12.75" customHeight="1">
       <c r="B74" s="396" t="s">
         <v>363</v>
       </c>
-      <c r="E74" s="509" t="s">
+      <c r="E74" s="495" t="s">
         <v>364</v>
       </c>
-      <c r="F74" s="425"/>
+      <c r="F74" s="427"/>
     </row>
     <row r="75" spans="2:6" ht="12.75" customHeight="1">
       <c r="B75" s="396" t="s">
         <v>365</v>
       </c>
-      <c r="E75" s="509" t="s">
+      <c r="E75" s="495" t="s">
         <v>366</v>
       </c>
-      <c r="F75" s="425"/>
+      <c r="F75" s="427"/>
     </row>
     <row r="76" spans="2:6" ht="12.75" customHeight="1">
       <c r="B76" s="403" t="s">
         <v>367</v>
       </c>
-      <c r="E76" s="513" t="s">
+      <c r="E76" s="496" t="s">
         <v>368</v>
       </c>
-      <c r="F76" s="425"/>
+      <c r="F76" s="427"/>
     </row>
     <row r="77" spans="2:6" ht="12.75" customHeight="1">
       <c r="B77" s="396" t="s">
         <v>369</v>
       </c>
-      <c r="E77" s="509" t="s">
+      <c r="E77" s="495" t="s">
         <v>370</v>
       </c>
-      <c r="F77" s="425"/>
+      <c r="F77" s="427"/>
     </row>
     <row r="78" spans="2:6" ht="12.75" customHeight="1">
       <c r="B78" s="396"/>
-      <c r="E78" s="509"/>
-      <c r="F78" s="425"/>
+      <c r="E78" s="495"/>
+      <c r="F78" s="427"/>
     </row>
     <row r="79" spans="2:6" ht="12.75" customHeight="1">
       <c r="B79" s="402" t="s">
         <v>371</v>
       </c>
-      <c r="E79" s="509" t="s">
+      <c r="E79" s="495" t="s">
         <v>372</v>
       </c>
-      <c r="F79" s="425"/>
+      <c r="F79" s="427"/>
     </row>
     <row r="80" spans="2:6" ht="12.75" customHeight="1">
       <c r="B80" s="394"/>
@@ -43144,171 +43144,171 @@
       <c r="B81" s="394"/>
     </row>
     <row r="82" spans="2:6" ht="12.75" customHeight="1">
-      <c r="B82" s="505" t="s">
+      <c r="B82" s="497" t="s">
         <v>307</v>
       </c>
-      <c r="E82" s="512"/>
-      <c r="F82" s="497"/>
+      <c r="E82" s="503"/>
+      <c r="F82" s="500"/>
     </row>
     <row r="83" spans="2:6" ht="12.75" customHeight="1">
-      <c r="B83" s="450"/>
-      <c r="E83" s="498"/>
-      <c r="F83" s="459"/>
+      <c r="B83" s="431"/>
+      <c r="E83" s="501"/>
+      <c r="F83" s="448"/>
     </row>
     <row r="84" spans="2:6" ht="12.75" customHeight="1">
-      <c r="B84" s="429"/>
-      <c r="E84" s="499"/>
-      <c r="F84" s="422"/>
+      <c r="B84" s="422"/>
+      <c r="E84" s="502"/>
+      <c r="F84" s="424"/>
     </row>
     <row r="85" spans="2:6" ht="12.75" customHeight="1">
       <c r="B85" s="395"/>
-      <c r="E85" s="514"/>
-      <c r="F85" s="497"/>
+      <c r="E85" s="505"/>
+      <c r="F85" s="500"/>
     </row>
     <row r="86" spans="2:6" ht="12.75" customHeight="1">
       <c r="B86" s="396" t="s">
         <v>373</v>
       </c>
-      <c r="E86" s="501" t="s">
+      <c r="E86" s="506" t="s">
         <v>374</v>
       </c>
-      <c r="F86" s="459"/>
+      <c r="F86" s="448"/>
     </row>
     <row r="87" spans="2:6" ht="12.75" customHeight="1">
       <c r="B87" s="396"/>
-      <c r="E87" s="503"/>
-      <c r="F87" s="459"/>
+      <c r="E87" s="507"/>
+      <c r="F87" s="448"/>
     </row>
     <row r="88" spans="2:6" ht="12.75" customHeight="1">
       <c r="B88" s="396" t="s">
         <v>375</v>
       </c>
-      <c r="E88" s="503" t="s">
+      <c r="E88" s="507" t="s">
         <v>376</v>
       </c>
-      <c r="F88" s="459"/>
+      <c r="F88" s="448"/>
     </row>
     <row r="89" spans="2:6" ht="12.75" customHeight="1">
       <c r="B89" s="396"/>
-      <c r="E89" s="503"/>
-      <c r="F89" s="459"/>
+      <c r="E89" s="507"/>
+      <c r="F89" s="448"/>
     </row>
     <row r="90" spans="2:6" ht="12.75" customHeight="1">
       <c r="B90" s="396" t="s">
         <v>312</v>
       </c>
-      <c r="E90" s="501" t="s">
+      <c r="E90" s="506" t="s">
         <v>312</v>
       </c>
-      <c r="F90" s="459"/>
+      <c r="F90" s="448"/>
     </row>
     <row r="91" spans="2:6" ht="12.75" customHeight="1">
       <c r="B91" s="400" t="s">
         <v>377</v>
       </c>
-      <c r="E91" s="503"/>
-      <c r="F91" s="459"/>
+      <c r="E91" s="507"/>
+      <c r="F91" s="448"/>
     </row>
     <row r="92" spans="2:6" ht="12.75" customHeight="1">
       <c r="B92" s="400" t="s">
         <v>378</v>
       </c>
-      <c r="E92" s="503"/>
-      <c r="F92" s="459"/>
+      <c r="E92" s="507"/>
+      <c r="F92" s="448"/>
     </row>
     <row r="93" spans="2:6" ht="12.75" customHeight="1">
       <c r="B93" s="400"/>
-      <c r="E93" s="503"/>
-      <c r="F93" s="459"/>
+      <c r="E93" s="507"/>
+      <c r="F93" s="448"/>
     </row>
     <row r="94" spans="2:6" ht="12.75" customHeight="1">
       <c r="B94" s="400"/>
-      <c r="E94" s="503"/>
-      <c r="F94" s="459"/>
+      <c r="E94" s="507"/>
+      <c r="F94" s="448"/>
     </row>
     <row r="95" spans="2:6" ht="12.75" customHeight="1">
       <c r="B95" s="400"/>
-      <c r="E95" s="503"/>
-      <c r="F95" s="459"/>
+      <c r="E95" s="507"/>
+      <c r="F95" s="448"/>
     </row>
     <row r="96" spans="2:6" ht="12.75" customHeight="1">
       <c r="B96" s="400"/>
-      <c r="E96" s="503"/>
-      <c r="F96" s="459"/>
+      <c r="E96" s="507"/>
+      <c r="F96" s="448"/>
     </row>
     <row r="97" spans="2:6" ht="12.75" customHeight="1">
       <c r="B97" s="400"/>
-      <c r="E97" s="503"/>
-      <c r="F97" s="459"/>
+      <c r="E97" s="507"/>
+      <c r="F97" s="448"/>
     </row>
     <row r="98" spans="2:6" ht="12.75" customHeight="1">
       <c r="B98" s="396"/>
-      <c r="E98" s="503"/>
-      <c r="F98" s="459"/>
+      <c r="E98" s="507"/>
+      <c r="F98" s="448"/>
     </row>
     <row r="99" spans="2:6" ht="12.75" customHeight="1">
       <c r="B99" s="396"/>
-      <c r="E99" s="503"/>
-      <c r="F99" s="459"/>
+      <c r="E99" s="507"/>
+      <c r="F99" s="448"/>
     </row>
     <row r="100" spans="2:6" ht="12.75" customHeight="1">
       <c r="B100" s="396" t="s">
         <v>320</v>
       </c>
-      <c r="E100" s="501" t="s">
+      <c r="E100" s="506" t="s">
         <v>320</v>
       </c>
-      <c r="F100" s="459"/>
+      <c r="F100" s="448"/>
     </row>
     <row r="101" spans="2:6" ht="12.75" customHeight="1">
       <c r="B101" s="396" t="s">
         <v>379</v>
       </c>
-      <c r="E101" s="501" t="s">
+      <c r="E101" s="506" t="s">
         <v>380</v>
       </c>
-      <c r="F101" s="459"/>
+      <c r="F101" s="448"/>
     </row>
     <row r="102" spans="2:6" ht="12.75" customHeight="1">
       <c r="B102" s="396" t="s">
         <v>381</v>
       </c>
-      <c r="E102" s="503" t="s">
+      <c r="E102" s="507" t="s">
         <v>382</v>
       </c>
-      <c r="F102" s="459"/>
+      <c r="F102" s="448"/>
     </row>
     <row r="103" spans="2:6" ht="12.75" customHeight="1">
       <c r="B103" s="396" t="s">
         <v>383</v>
       </c>
-      <c r="E103" s="503" t="s">
+      <c r="E103" s="507" t="s">
         <v>384</v>
       </c>
-      <c r="F103" s="459"/>
+      <c r="F103" s="448"/>
     </row>
     <row r="104" spans="2:6" ht="12.75" customHeight="1">
       <c r="B104" s="396" t="s">
         <v>385</v>
       </c>
-      <c r="E104" s="501" t="s">
+      <c r="E104" s="506" t="s">
         <v>385</v>
       </c>
-      <c r="F104" s="459"/>
+      <c r="F104" s="448"/>
     </row>
     <row r="105" spans="2:6" ht="12.75" customHeight="1">
       <c r="B105" s="396" t="s">
         <v>386</v>
       </c>
-      <c r="E105" s="503" t="s">
+      <c r="E105" s="507" t="s">
         <v>387</v>
       </c>
-      <c r="F105" s="459"/>
+      <c r="F105" s="448"/>
     </row>
     <row r="106" spans="2:6" ht="12.75" customHeight="1">
       <c r="B106" s="396"/>
-      <c r="E106" s="503"/>
-      <c r="F106" s="459"/>
+      <c r="E106" s="507"/>
+      <c r="F106" s="448"/>
     </row>
     <row r="107" spans="2:6" ht="12.75" customHeight="1">
       <c r="B107" s="402" t="s">
@@ -43317,25 +43317,25 @@
       <c r="E107" s="504" t="s">
         <v>389</v>
       </c>
-      <c r="F107" s="422"/>
+      <c r="F107" s="424"/>
     </row>
     <row r="108" spans="2:6" ht="12.75" customHeight="1"/>
     <row r="109" spans="2:6" ht="12.75" customHeight="1"/>
     <row r="110" spans="2:6" ht="12.75" customHeight="1"/>
     <row r="111" spans="2:6" ht="12.75" customHeight="1">
-      <c r="B111" s="495" t="s">
+      <c r="B111" s="498" t="s">
         <v>307</v>
       </c>
       <c r="E111" s="405"/>
       <c r="F111" s="405"/>
     </row>
     <row r="112" spans="2:6" ht="12.75" customHeight="1">
-      <c r="B112" s="450"/>
+      <c r="B112" s="431"/>
       <c r="E112" s="405"/>
       <c r="F112" s="405"/>
     </row>
     <row r="113" spans="2:6" ht="12.75" customHeight="1">
-      <c r="B113" s="429"/>
+      <c r="B113" s="422"/>
       <c r="E113" s="405"/>
       <c r="F113" s="405"/>
     </row>
@@ -43477,23 +43477,23 @@
       <c r="B136" s="394"/>
     </row>
     <row r="137" spans="2:6" ht="12.75" customHeight="1">
-      <c r="B137" s="505" t="s">
+      <c r="B137" s="497" t="s">
         <v>307</v>
       </c>
-      <c r="E137" s="511" t="s">
+      <c r="E137" s="499" t="s">
         <v>307</v>
       </c>
-      <c r="F137" s="497"/>
+      <c r="F137" s="500"/>
     </row>
     <row r="138" spans="2:6" ht="12.75" customHeight="1">
-      <c r="B138" s="450"/>
-      <c r="E138" s="498"/>
-      <c r="F138" s="459"/>
+      <c r="B138" s="431"/>
+      <c r="E138" s="501"/>
+      <c r="F138" s="448"/>
     </row>
     <row r="139" spans="2:6" ht="12.75" customHeight="1">
-      <c r="B139" s="429"/>
-      <c r="E139" s="499"/>
-      <c r="F139" s="422"/>
+      <c r="B139" s="422"/>
+      <c r="E139" s="502"/>
+      <c r="F139" s="424"/>
     </row>
     <row r="140" spans="2:6" ht="12.75" customHeight="1">
       <c r="B140" s="395"/>
@@ -44459,11 +44459,78 @@
     <row r="981" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="E5:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="E28:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="E53:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="E97:F97"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="E103:F103"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="E106:F106"/>
     <mergeCell ref="B82:B84"/>
     <mergeCell ref="B111:B113"/>
     <mergeCell ref="B137:B139"/>
@@ -44480,78 +44547,11 @@
     <mergeCell ref="E92:F92"/>
     <mergeCell ref="E93:F93"/>
     <mergeCell ref="E94:F94"/>
-    <mergeCell ref="E102:F102"/>
-    <mergeCell ref="E103:F103"/>
-    <mergeCell ref="E104:F104"/>
-    <mergeCell ref="E105:F105"/>
-    <mergeCell ref="E106:F106"/>
-    <mergeCell ref="E97:F97"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="E99:F99"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="E96:F96"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="E53:F55"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="E28:F30"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="E5:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="E77:F77"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B14" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
@@ -44593,17 +44593,17 @@
       <c r="B3" s="515" t="s">
         <v>411</v>
       </c>
-      <c r="C3" s="485"/>
-      <c r="D3" s="485"/>
-      <c r="E3" s="486"/>
+      <c r="C3" s="466"/>
+      <c r="D3" s="466"/>
+      <c r="E3" s="467"/>
       <c r="F3" s="408"/>
       <c r="G3" s="408"/>
       <c r="H3" s="408"/>
     </row>
     <row r="4" spans="1:26" ht="45.75" customHeight="1">
-      <c r="B4" s="478"/>
-      <c r="C4" s="479"/>
-      <c r="D4" s="479"/>
+      <c r="B4" s="469"/>
+      <c r="C4" s="470"/>
+      <c r="D4" s="470"/>
       <c r="E4" s="443"/>
       <c r="F4" s="408"/>
       <c r="G4" s="408"/>
